--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72499D4-2B9F-4924-B1EE-E969895EE53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A78FF9-174F-44E3-8662-B96A3F1FEC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>item</t>
   </si>
@@ -36,9 +36,6 @@
     <t>empresa</t>
   </si>
   <si>
-    <t>licitacao</t>
-  </si>
-  <si>
     <t>data envio</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>responsavel material</t>
   </si>
   <si>
-    <t>adriano pintor</t>
-  </si>
-  <si>
     <t>araujo oliveira</t>
   </si>
   <si>
@@ -73,19 +67,76 @@
   </si>
   <si>
     <t>data memorando</t>
+  </si>
+  <si>
+    <t>adriano</t>
+  </si>
+  <si>
+    <t>observação</t>
+  </si>
+  <si>
+    <t>entrega parcial</t>
+  </si>
+  <si>
+    <t>licitacao tipo</t>
+  </si>
+  <si>
+    <t>licitacao numero</t>
+  </si>
+  <si>
+    <t>021/2023</t>
+  </si>
+  <si>
+    <t>45 dias</t>
+  </si>
+  <si>
+    <t>E TERRAPLANAGEM E CONSTRUÇÕES EIRELI</t>
+  </si>
+  <si>
+    <t>013/2023</t>
+  </si>
+  <si>
+    <t>joao couto</t>
+  </si>
+  <si>
+    <t>CONSTRUFORTE TERCEIRIZAÇÕES LTDA</t>
+  </si>
+  <si>
+    <t>DELVALLE MATERIAIS ELÉTRICOS LTDA-EIRELI</t>
+  </si>
+  <si>
+    <t>tampao de ferro</t>
+  </si>
+  <si>
+    <t>DOUGLAS S DE AMORIM</t>
+  </si>
+  <si>
+    <t>FICAPOÇOS FIOS &amp; CABOS LTDA,</t>
+  </si>
+  <si>
+    <t>COMERCIAL VOIGT EIRELI EPP</t>
+  </si>
+  <si>
+    <t>025/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,8 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -433,16 +486,18 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="4" max="4" width="47.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,31 +505,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -485,16 +546,28 @@
         <v>2024</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>45505</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45505</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45522</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -505,21 +578,217 @@
         <v>2024</v>
       </c>
       <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45509</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45523</v>
+      </c>
+      <c r="K3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>716</v>
+      </c>
+      <c r="C4">
+        <v>2024</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45157</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>652</v>
+      </c>
+      <c r="C5">
+        <v>2024</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>45510</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>657</v>
+      </c>
+      <c r="C6">
+        <v>2024</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1">
+        <v>45510</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>654</v>
+      </c>
+      <c r="C7">
+        <v>2024</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
+        <v>45510</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>656</v>
+      </c>
+      <c r="C8">
+        <v>2024</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45510</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>655</v>
+      </c>
+      <c r="C9">
+        <v>2024</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45510</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>653</v>
+      </c>
+      <c r="C10">
+        <v>2024</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45144</v>
+      </c>
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A78FF9-174F-44E3-8662-B96A3F1FEC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1AC987-83D4-49BB-B927-0B2C7843491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
   <si>
     <t>item</t>
   </si>
@@ -118,6 +118,18 @@
   </si>
   <si>
     <t>025/2023</t>
+  </si>
+  <si>
+    <t>THAIS RODRIGUES MACHADO LTDA</t>
+  </si>
+  <si>
+    <t>024/2023</t>
+  </si>
+  <si>
+    <t>artefatos de concreto</t>
+  </si>
+  <si>
+    <t>wilma</t>
   </si>
 </sst>
 </file>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,6 +799,29 @@
         <v>23</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45524</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1AC987-83D4-49BB-B927-0B2C7843491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1EE3C-1987-4908-B311-004EB3776D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,6 +633,9 @@
       <c r="G4" s="1">
         <v>45157</v>
       </c>
+      <c r="H4" s="1">
+        <v>45526</v>
+      </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
@@ -793,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="H10" s="1">
-        <v>45144</v>
+        <v>45510</v>
       </c>
       <c r="K10" t="s">
         <v>23</v>
@@ -803,6 +806,12 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>721</v>
+      </c>
+      <c r="C11">
+        <v>2024</v>
+      </c>
       <c r="D11" t="s">
         <v>31</v>
       </c>
@@ -814,6 +823,9 @@
       </c>
       <c r="G11" s="1">
         <v>45524</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45526</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC1EE3C-1987-4908-B311-004EB3776D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BA2933-FB39-4514-8C98-AB712C8D18EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>item</t>
   </si>
@@ -130,13 +130,28 @@
   </si>
   <si>
     <t>wilma</t>
+  </si>
+  <si>
+    <t>entrega total</t>
+  </si>
+  <si>
+    <t>CORR PLASTIK</t>
+  </si>
+  <si>
+    <t>031/2023</t>
+  </si>
+  <si>
+    <t>joao manoel</t>
+  </si>
+  <si>
+    <t>manutencao agua</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +165,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,15 +195,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,29 +678,37 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>652</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2024</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1">
+      <c r="G5" s="3"/>
+      <c r="H5" s="4">
         <v>45510</v>
       </c>
-      <c r="K5" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="4">
+        <v>45526</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>23</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -832,6 +871,29 @@
       </c>
       <c r="L11" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45527</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BA2933-FB39-4514-8C98-AB712C8D18EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9247A3EC-4494-47DA-A353-94C1085D2707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>item</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>manutencao agua</t>
+  </si>
+  <si>
+    <t>TIGRE</t>
+  </si>
+  <si>
+    <t>manutencao esgoto</t>
+  </si>
+  <si>
+    <t>wilma mundim</t>
   </si>
 </sst>
 </file>
@@ -520,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,6 +886,12 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>733</v>
+      </c>
+      <c r="C12">
+        <v>2024</v>
+      </c>
       <c r="D12" t="s">
         <v>36</v>
       </c>
@@ -894,6 +909,29 @@
       </c>
       <c r="L12" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45531</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9247A3EC-4494-47DA-A353-94C1085D2707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF51BC-0EE4-4B07-964A-B74D7C8AB99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>item</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>wilma mundim</t>
+  </si>
+  <si>
+    <t>SHOP MATERIAIS</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +937,26 @@
         <v>41</v>
       </c>
     </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45532</v>
+      </c>
+      <c r="K14" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AF51BC-0EE4-4B07-964A-B74D7C8AB99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CCC8DB-0B42-486C-B012-B8D05C901432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,6 +918,12 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>736</v>
+      </c>
+      <c r="C13">
+        <v>2024</v>
+      </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CCC8DB-0B42-486C-B012-B8D05C901432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C62F7-0D1C-48BA-BFD5-9F9758EC8FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,6 +907,9 @@
       <c r="G12" s="1">
         <v>45527</v>
       </c>
+      <c r="H12" s="1">
+        <v>45532</v>
+      </c>
       <c r="K12" t="s">
         <v>38</v>
       </c>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712C62F7-0D1C-48BA-BFD5-9F9758EC8FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3BC80C-DE5A-4E04-A2A1-04992A7A0A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -535,15 +535,16 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="A3" sqref="A3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" customWidth="1"/>
@@ -623,35 +624,37 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>633</v>
       </c>
-      <c r="C3">
-        <v>2024</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4">
         <v>45509</v>
       </c>
-      <c r="J3" s="1">
-        <v>45523</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="4">
+        <v>45534</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" t="s">
-        <v>16</v>
+      <c r="L3" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -854,34 +857,40 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>721</v>
       </c>
-      <c r="C11">
-        <v>2024</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C11" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>45524</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>45526</v>
       </c>
-      <c r="K11" t="s">
+      <c r="I11" s="4">
+        <v>45527</v>
+      </c>
+      <c r="J11" s="4">
+        <v>45527</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3BC80C-DE5A-4E04-A2A1-04992A7A0A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0335FDFA-8110-4C5F-B4DE-1BA54EEFEA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>item</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>SHOP MATERIAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP </t>
   </si>
 </sst>
 </file>
@@ -532,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,6 +962,12 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>744</v>
+      </c>
+      <c r="C14">
+        <v>2024</v>
+      </c>
       <c r="D14" t="s">
         <v>43</v>
       </c>
@@ -972,6 +981,26 @@
         <v>12</v>
       </c>
       <c r="L14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45537</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
         <v>39</v>
       </c>
     </row>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0335FDFA-8110-4C5F-B4DE-1BA54EEFEA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC2019C-59E9-40E0-86A6-CDF19E325CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>item</t>
   </si>
@@ -159,7 +159,10 @@
     <t>SHOP MATERIAIS</t>
   </si>
   <si>
-    <t xml:space="preserve">GP </t>
+    <t>NHANDERIO</t>
+  </si>
+  <si>
+    <t>GP COMERCIO DE FILTROS E LUBRIFICANTES</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,6 +980,9 @@
       <c r="G14" s="1">
         <v>45532</v>
       </c>
+      <c r="H14" s="1">
+        <v>45538</v>
+      </c>
       <c r="K14" t="s">
         <v>12</v>
       </c>
@@ -989,7 +995,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1002,6 +1008,29 @@
       </c>
       <c r="L15" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45538</v>
+      </c>
+      <c r="K16" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC2019C-59E9-40E0-86A6-CDF19E325CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C877CABA-B7E8-4C9E-BA88-2D72C331CCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>item</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>GP COMERCIO DE FILTROS E LUBRIFICANTES</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soft start (21) </t>
   </si>
 </sst>
 </file>
@@ -538,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,9 +563,11 @@
     <col min="10" max="10" width="12.85546875" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,40 +604,54 @@
       <c r="L1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>662</v>
       </c>
-      <c r="C2">
-        <v>2024</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4">
         <v>45505</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <v>45505</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I2" s="3"/>
+      <c r="J2" s="4">
         <v>45522</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -662,8 +684,14 @@
       <c r="L3" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -698,7 +726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -732,7 +760,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -758,7 +786,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -784,7 +812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -810,33 +838,43 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>655</v>
       </c>
-      <c r="C9">
-        <v>2024</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
         <v>45510</v>
       </c>
-      <c r="K9" t="s">
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -862,7 +900,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -900,7 +938,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -932,7 +970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -961,7 +999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -990,7 +1028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1010,7 +1048,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C877CABA-B7E8-4C9E-BA88-2D72C331CCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DA7009-7B64-464F-BBBB-1A1FBF98995E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>item</t>
   </si>
@@ -169,13 +169,19 @@
   </si>
   <si>
     <t xml:space="preserve">soft start (21) </t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>falta 86.765,48</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +202,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +220,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -219,19 +237,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,19 +577,20 @@
     <col min="2" max="2" width="6.42578125" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="47.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,37 +604,40 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -624,34 +650,35 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4">
-        <v>45505</v>
-      </c>
+      <c r="G2" s="3"/>
       <c r="H2" s="4">
         <v>45505</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="4">
+      <c r="I2" s="4">
+        <v>45505</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4">
         <v>45522</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -664,34 +691,37 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
+      <c r="E3" s="3">
+        <v>5731.6</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4">
+      <c r="H3" s="3"/>
+      <c r="I3" s="4">
         <v>45509</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4">
+      <c r="J3" s="3"/>
+      <c r="K3" s="4">
         <v>45534</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -704,89 +734,108 @@
       <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="E4" s="2">
+        <v>40000</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>45157</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>45526</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>652</v>
       </c>
-      <c r="C5" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="5">
+        <v>2024</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="5">
+        <v>370668.31</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4">
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
         <v>45510</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4">
-        <v>45526</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="J5" s="5"/>
+      <c r="K5" s="6">
+        <v>45538</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="M5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>657</v>
       </c>
-      <c r="C6">
-        <v>2024</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="3">
+        <v>185</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="4">
         <v>45510</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4">
+        <v>45538</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -799,20 +848,23 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
+      <c r="E7">
+        <v>16654.53</v>
       </c>
       <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>45510</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -825,20 +877,23 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
+      <c r="E8">
+        <v>130899.61</v>
       </c>
       <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>45510</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -851,30 +906,35 @@
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>11</v>
+      <c r="E9" s="3">
+        <v>114661.4</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4">
+      <c r="H9" s="3"/>
+      <c r="I9" s="4">
         <v>45510</v>
       </c>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4">
+        <v>45530</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -887,20 +947,23 @@
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
+      <c r="E10">
+        <v>28753</v>
       </c>
       <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>45510</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -913,32 +976,35 @@
       <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
+      <c r="E11" s="3">
+        <v>30442.02</v>
       </c>
       <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="4">
+      <c r="H11" s="4">
         <v>45524</v>
       </c>
-      <c r="H11" s="4">
+      <c r="I11" s="4">
         <v>45526</v>
-      </c>
-      <c r="I11" s="4">
-        <v>45527</v>
       </c>
       <c r="J11" s="4">
         <v>45527</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4">
+        <v>45527</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -951,26 +1017,29 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s">
-        <v>11</v>
+      <c r="E12">
+        <v>182977</v>
       </c>
       <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>45527</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>45532</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>38</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -983,23 +1052,26 @@
       <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E13" t="s">
-        <v>11</v>
+      <c r="E13">
+        <v>108375</v>
       </c>
       <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>45531</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>42</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1012,63 +1084,72 @@
       <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14">
+        <v>5000</v>
+      </c>
+      <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>45532</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>45538</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>12</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>45537</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>12</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
       <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>45538</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>12</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f>370668.31-208117.02-75785.81</f>
+        <v>86765.48000000001</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DA7009-7B64-464F-BBBB-1A1FBF98995E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94087B6-3ECE-4578-92EC-6AA1B9804DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -566,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,12 +1146,6 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
-      <c r="L22">
-        <f>370668.31-208117.02-75785.81</f>
-        <v>86765.48000000001</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94087B6-3ECE-4578-92EC-6AA1B9804DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38681D3F-71B1-4303-9CBB-DE8DF951F1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,8 +1107,17 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>756</v>
+      </c>
+      <c r="C15">
+        <v>2024</v>
+      </c>
       <c r="D15" t="s">
         <v>45</v>
+      </c>
+      <c r="E15">
+        <v>6100</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38681D3F-71B1-4303-9CBB-DE8DF951F1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E954DA-CC51-4596-95D5-E9B0A821E972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E954DA-CC51-4596-95D5-E9B0A821E972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB1180D-D8F8-45C8-BBA8-1C1FB6ABE97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,6 +1064,9 @@
       <c r="H13" s="1">
         <v>45531</v>
       </c>
+      <c r="I13" s="1">
+        <v>45540</v>
+      </c>
       <c r="L13" t="s">
         <v>42</v>
       </c>
@@ -1136,8 +1139,17 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>757</v>
+      </c>
+      <c r="C16">
+        <v>2024</v>
+      </c>
       <c r="D16" t="s">
         <v>44</v>
+      </c>
+      <c r="E16">
+        <v>122692.6</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB1180D-D8F8-45C8-BBA8-1C1FB6ABE97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AA637E-DEE9-4A6B-BD03-3A14766F3A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>item</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>falta 86.765,48</t>
+  </si>
+  <si>
+    <t>CONEHIDRO</t>
   </si>
 </sst>
 </file>
@@ -566,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,6 +1170,23 @@
         <v>41</v>
       </c>
     </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45540</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AA637E-DEE9-4A6B-BD03-3A14766F3A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B0271-0E65-4568-88E8-A1EC30990D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
   <si>
     <t>item</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>CONEHIDRO</t>
+  </si>
+  <si>
+    <t>POLYVIN</t>
   </si>
 </sst>
 </file>
@@ -569,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,6 +1009,10 @@
       <c r="M11" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1170,7 +1177,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1185,6 +1192,35 @@
       </c>
       <c r="H17" s="1">
         <v>45540</v>
+      </c>
+      <c r="L17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="1">
+        <v>45541</v>
+      </c>
+      <c r="L18" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B0271-0E65-4568-88E8-A1EC30990D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24799523-A1F0-49BB-AF18-253D163DDB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -575,7 +575,7 @@
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,6 +1170,9 @@
       <c r="H16" s="1">
         <v>45538</v>
       </c>
+      <c r="I16" s="1">
+        <v>45541</v>
+      </c>
       <c r="L16" t="s">
         <v>12</v>
       </c>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24799523-A1F0-49BB-AF18-253D163DDB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07CFB2F-D2CC-4180-87D6-06D61752F292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
   <si>
     <t>item</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>POLYVIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARAUJO OLIVEIRA </t>
   </si>
 </sst>
 </file>
@@ -572,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,6 +1229,23 @@
         <v>41</v>
       </c>
     </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1">
+        <v>45545</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07CFB2F-D2CC-4180-87D6-06D61752F292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE19A223-4FA0-4EEA-9477-0A46D44207A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
   <si>
     <t>item</t>
   </si>
@@ -184,6 +184,24 @@
   </si>
   <si>
     <t xml:space="preserve">ARAUJO OLIVEIRA </t>
+  </si>
+  <si>
+    <t>café / papel higienico</t>
+  </si>
+  <si>
+    <t>THP</t>
+  </si>
+  <si>
+    <t>025/2024</t>
+  </si>
+  <si>
+    <t>açucar/adocante/cha</t>
+  </si>
+  <si>
+    <t>papel toalha</t>
+  </si>
+  <si>
+    <t>M. DA GUIA FERREIRA</t>
   </si>
 </sst>
 </file>
@@ -575,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1187,8 +1205,17 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>762</v>
+      </c>
+      <c r="C17">
+        <v>2024</v>
+      </c>
       <c r="D17" t="s">
         <v>50</v>
+      </c>
+      <c r="E17">
+        <v>45863.7</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1233,9 +1260,18 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19">
+        <v>770</v>
+      </c>
+      <c r="C19">
+        <v>2024</v>
+      </c>
       <c r="D19" t="s">
         <v>52</v>
       </c>
+      <c r="E19">
+        <v>2361.6</v>
+      </c>
       <c r="F19" t="s">
         <v>11</v>
       </c>
@@ -1244,6 +1280,58 @@
       </c>
       <c r="H19" s="1">
         <v>45545</v>
+      </c>
+      <c r="L19" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1">
+        <v>45545</v>
+      </c>
+      <c r="L20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45545</v>
+      </c>
+      <c r="L21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE19A223-4FA0-4EEA-9477-0A46D44207A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1260E5-AF62-468A-A6A1-65C8DFA40344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -596,7 +596,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,8 +1292,17 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20">
+        <v>772</v>
+      </c>
+      <c r="C20">
+        <v>2024</v>
+      </c>
       <c r="D20" t="s">
         <v>58</v>
+      </c>
+      <c r="E20">
+        <v>1220.9000000000001</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1315,8 +1324,17 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>773</v>
+      </c>
+      <c r="C21">
+        <v>2024</v>
+      </c>
       <c r="D21" t="s">
         <v>54</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1260E5-AF62-468A-A6A1-65C8DFA40344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DCD1FF-54BA-4544-82C2-2526C8C6638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
   <si>
     <t>item</t>
   </si>
@@ -202,6 +203,33 @@
   </si>
   <si>
     <t>M. DA GUIA FERREIRA</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>21/2023</t>
+  </si>
+  <si>
+    <t>conehidro</t>
+  </si>
+  <si>
+    <t>994/2023</t>
+  </si>
+  <si>
+    <t>1009/2023</t>
+  </si>
+  <si>
+    <t>21/2024</t>
+  </si>
+  <si>
+    <t>123/2024</t>
+  </si>
+  <si>
+    <t>478/2024</t>
+  </si>
+  <si>
+    <t>762/2024</t>
   </si>
 </sst>
 </file>
@@ -595,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1356,4 +1384,128 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA38AEA-D99A-4832-B8CB-C63A7986E9F7}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45225</v>
+      </c>
+      <c r="E2">
+        <v>52217.95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45236</v>
+      </c>
+      <c r="E3">
+        <v>4366.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45322</v>
+      </c>
+      <c r="E4">
+        <v>35986.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45436</v>
+      </c>
+      <c r="E5">
+        <v>88701.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45545</v>
+      </c>
+      <c r="E6">
+        <v>45863.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DCD1FF-54BA-4544-82C2-2526C8C6638C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E69E1A-A652-4FF2-B96D-1700291C843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -1254,6 +1254,9 @@
       <c r="H17" s="1">
         <v>45540</v>
       </c>
+      <c r="I17" s="1">
+        <v>45547</v>
+      </c>
       <c r="L17" t="s">
         <v>12</v>
       </c>
@@ -1390,7 +1393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA38AEA-D99A-4832-B8CB-C63A7986E9F7}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E69E1A-A652-4FF2-B96D-1700291C843D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1C35D-A532-497F-AF86-E54F0B85A459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,6 +1312,9 @@
       <c r="H19" s="1">
         <v>45545</v>
       </c>
+      <c r="I19" s="1">
+        <v>45547</v>
+      </c>
       <c r="L19" t="s">
         <v>12</v>
       </c>
@@ -1344,6 +1347,9 @@
       <c r="H20" s="1">
         <v>45545</v>
       </c>
+      <c r="I20" s="1">
+        <v>45547</v>
+      </c>
       <c r="L20" t="s">
         <v>12</v>
       </c>
@@ -1375,6 +1381,9 @@
       </c>
       <c r="H21" s="1">
         <v>45545</v>
+      </c>
+      <c r="I21" s="1">
+        <v>45547</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D1C35D-A532-497F-AF86-E54F0B85A459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2B7B1-C353-41AF-A1A0-F2B1C0B57D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -624,7 +624,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1229,7 +1229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1357,40 +1357,46 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>773</v>
       </c>
-      <c r="C21">
-        <v>2024</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="3">
+        <v>2024</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>2000</v>
       </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="F21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="4">
         <v>45545</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>45547</v>
       </c>
-      <c r="L21" t="s">
+      <c r="J21" s="3"/>
+      <c r="K21" s="4">
+        <v>45551</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F2B7B1-C353-41AF-A1A0-F2B1C0B57D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10623EA0-2829-46FA-8FF8-2A2A22E66C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
   <si>
     <t>item</t>
   </si>
@@ -91,9 +91,6 @@
     <t>45 dias</t>
   </si>
   <si>
-    <t>E TERRAPLANAGEM E CONSTRUÇÕES EIRELI</t>
-  </si>
-  <si>
     <t>013/2023</t>
   </si>
   <si>
@@ -230,6 +227,12 @@
   </si>
   <si>
     <t>762/2024</t>
+  </si>
+  <si>
+    <t>terminais compressao</t>
+  </si>
+  <si>
+    <t>3E TERRAPLANAGEM E CONSTRUÇÕES EIRELI</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -689,7 +692,7 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -727,10 +730,10 @@
         <v>16</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -753,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="4">
@@ -767,13 +770,13 @@
         <v>12</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -787,7 +790,7 @@
         <v>2024</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>40000</v>
@@ -811,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -825,7 +828,7 @@
         <v>2024</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E5" s="5">
         <v>370668.31</v>
@@ -834,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="6">
@@ -845,13 +848,13 @@
         <v>45538</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O5" s="5"/>
     </row>
@@ -866,7 +869,7 @@
         <v>2024</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E6" s="3">
         <v>185</v>
@@ -875,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="4">
         <v>45510</v>
@@ -884,10 +887,10 @@
         <v>45538</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -901,7 +904,7 @@
         <v>2024</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>16654.53</v>
@@ -910,13 +913,13 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1">
         <v>45510</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -930,7 +933,7 @@
         <v>2024</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>130899.61</v>
@@ -939,13 +942,13 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1">
         <v>45510</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -959,7 +962,7 @@
         <v>2024</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3">
         <v>114661.4</v>
@@ -968,7 +971,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="4">
@@ -979,44 +982,56 @@
         <v>45530</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>653</v>
       </c>
-      <c r="C10">
-        <v>2024</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="5">
+        <v>2024</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5">
         <v>28753</v>
       </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6">
+        <v>45510</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6">
+        <v>45551</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="1">
-        <v>45510</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
+      <c r="M10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1029,7 +1044,7 @@
         <v>2024</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3">
         <v>30442.02</v>
@@ -1038,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11" s="4">
         <v>45524</v>
@@ -1053,14 +1068,14 @@
         <v>45527</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1074,7 +1089,7 @@
         <v>2024</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>182977</v>
@@ -1083,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="1">
         <v>45527</v>
@@ -1092,10 +1107,10 @@
         <v>45532</v>
       </c>
       <c r="L12" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" t="s">
         <v>38</v>
-      </c>
-      <c r="M12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1109,7 +1124,7 @@
         <v>2024</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>108375</v>
@@ -1127,10 +1142,10 @@
         <v>45540</v>
       </c>
       <c r="L13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1144,7 +1159,7 @@
         <v>2024</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14">
         <v>5000</v>
@@ -1162,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1176,7 +1191,7 @@
         <v>2024</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15">
         <v>6100</v>
@@ -1191,7 +1206,7 @@
         <v>12</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1205,7 +1220,7 @@
         <v>2024</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>122692.6</v>
@@ -1226,7 +1241,7 @@
         <v>12</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1240,7 +1255,7 @@
         <v>2024</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17">
         <v>45863.7</v>
@@ -1261,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="M17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1269,7 +1284,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1284,7 +1299,7 @@
         <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1298,7 +1313,7 @@
         <v>2024</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>2361.6</v>
@@ -1307,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" s="1">
         <v>45545</v>
@@ -1319,7 +1334,7 @@
         <v>12</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1333,7 +1348,7 @@
         <v>2024</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20">
         <v>1220.9000000000001</v>
@@ -1342,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H20" s="1">
         <v>45545</v>
@@ -1354,7 +1369,7 @@
         <v>12</v>
       </c>
       <c r="M20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1368,7 +1383,7 @@
         <v>2024</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="3">
         <v>2000</v>
@@ -1377,7 +1392,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H21" s="4">
         <v>45545</v>
@@ -1393,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -1432,21 +1447,21 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>62</v>
       </c>
       <c r="D2" s="1">
         <v>45225</v>
@@ -1457,13 +1472,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1">
         <v>45236</v>
@@ -1474,13 +1489,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
       </c>
       <c r="D4" s="1">
         <v>45322</v>
@@ -1491,13 +1506,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1">
         <v>45436</v>
@@ -1508,13 +1523,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1">
         <v>45545</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10623EA0-2829-46FA-8FF8-2A2A22E66C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F35BC9-960E-4955-ACF2-378FC27EEB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
   <si>
     <t>item</t>
   </si>
@@ -239,19 +239,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -297,17 +291,16 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -627,7 +620,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,97 +689,97 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>662</v>
       </c>
-      <c r="C2" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3">
         <v>45505</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>45505</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4">
+      <c r="J2" s="2"/>
+      <c r="K2" s="3">
         <v>45522</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>633</v>
       </c>
-      <c r="C3" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>5731.6</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4">
+      <c r="H3" s="2"/>
+      <c r="I3" s="3">
         <v>45509</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4">
+      <c r="J3" s="2"/>
+      <c r="K3" s="3">
         <v>45534</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>716</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2024</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -795,101 +788,108 @@
       <c r="E4" s="2">
         <v>40000</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>45157</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>45526</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="3">
+        <v>45553</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>652</v>
       </c>
-      <c r="C5" s="5">
-        <v>2024</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>370668.31</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6">
+      <c r="H5" s="4"/>
+      <c r="I5" s="5">
         <v>45510</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6">
+      <c r="J5" s="4"/>
+      <c r="K5" s="5">
         <v>45538</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>657</v>
       </c>
-      <c r="C6" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>185</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>45510</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>45538</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -952,129 +952,129 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>655</v>
       </c>
-      <c r="C9" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>114661.4</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="4">
+      <c r="H9" s="2"/>
+      <c r="I9" s="3">
         <v>45510</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4">
+      <c r="J9" s="2"/>
+      <c r="K9" s="3">
         <v>45530</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>653</v>
       </c>
-      <c r="C10" s="5">
-        <v>2024</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>28753</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6">
+      <c r="H10" s="4"/>
+      <c r="I10" s="5">
         <v>45510</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6">
+      <c r="J10" s="4"/>
+      <c r="K10" s="5">
         <v>45551</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>721</v>
       </c>
-      <c r="C11" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>30442.02</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>45524</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>45526</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>45527</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="3">
         <v>45527</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3" t="s">
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1373,45 +1373,45 @@
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>773</v>
       </c>
-      <c r="C21" s="3">
-        <v>2024</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>2000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>45545</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>45547</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4">
+      <c r="J21" s="2"/>
+      <c r="K21" s="3">
         <v>45551</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F35BC9-960E-4955-ACF2-378FC27EEB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E79C6DB-3814-439D-82F4-EFF710FB3046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
   <si>
     <t>item</t>
   </si>
@@ -620,7 +620,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1411,9 @@
         <v>56</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="O21" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E79C6DB-3814-439D-82F4-EFF710FB3046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC9E2C2-668F-4858-9109-365F3EA04F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
   <si>
     <t>item</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>3E TERRAPLANAGEM E CONSTRUÇÕES EIRELI</t>
+  </si>
+  <si>
+    <t>031/2024</t>
   </si>
 </sst>
 </file>
@@ -617,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,6 +1416,26 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="1">
+        <v>45555</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC9E2C2-668F-4858-9109-365F3EA04F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F56B7-A89F-4C05-85C6-6EC698EC4E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -623,7 +623,7 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,8 +1422,17 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>797</v>
+      </c>
+      <c r="C22">
+        <v>2024</v>
+      </c>
       <c r="D22" t="s">
         <v>35</v>
+      </c>
+      <c r="E22">
+        <v>111852</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1F56B7-A89F-4C05-85C6-6EC698EC4E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D28575-1AEF-48E3-ABB9-1FA5734E5D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>item</t>
   </si>
@@ -236,6 +236,15 @@
   </si>
   <si>
     <t>031/2024</t>
+  </si>
+  <si>
+    <t>VEDASYSTEM</t>
+  </si>
+  <si>
+    <t>setor corte</t>
+  </si>
+  <si>
+    <t>lacres</t>
   </si>
 </sst>
 </file>
@@ -620,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,8 +1452,37 @@
       <c r="H22" s="1">
         <v>45555</v>
       </c>
+      <c r="I22" s="1">
+        <v>45559</v>
+      </c>
       <c r="L22" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>450760</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="1">
+        <v>45559</v>
+      </c>
+      <c r="L23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D28575-1AEF-48E3-ABB9-1FA5734E5D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9989841E-B209-46C2-A832-29F01023D4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
   <si>
     <t>item</t>
   </si>
@@ -245,6 +245,12 @@
   </si>
   <si>
     <t>lacres</t>
+  </si>
+  <si>
+    <t>ok (1000 tubos de 50mm)</t>
+  </si>
+  <si>
+    <t>ok (21298,00)</t>
   </si>
 </sst>
 </file>
@@ -632,7 +638,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,7 +1047,7 @@
         <v>67</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="O10" s="4"/>
     </row>
@@ -1091,39 +1097,45 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
         <v>733</v>
       </c>
-      <c r="C12">
-        <v>2024</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="C12" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <v>182977</v>
       </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="5">
         <v>45527</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="5">
         <v>45532</v>
       </c>
-      <c r="L12" t="s">
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="N12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1161,64 +1173,83 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>744</v>
       </c>
-      <c r="C14">
-        <v>2024</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>5000</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="1">
+      <c r="G14" s="2"/>
+      <c r="H14" s="3">
         <v>45532</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>45538</v>
       </c>
-      <c r="L14" t="s">
+      <c r="J14" s="2"/>
+      <c r="K14" s="3">
+        <v>45547</v>
+      </c>
+      <c r="L14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>756</v>
       </c>
-      <c r="C15">
-        <v>2024</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>6100</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="1">
+      <c r="G15" s="2"/>
+      <c r="H15" s="3">
         <v>45537</v>
       </c>
-      <c r="L15" t="s">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="3">
+        <v>45551</v>
+      </c>
+      <c r="L15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9989841E-B209-46C2-A832-29F01023D4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02D55F-E632-483B-8913-7D8F85C7F18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1493,6 +1493,12 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
+      </c>
+      <c r="B23">
+        <v>805</v>
+      </c>
+      <c r="C23">
+        <v>2024</v>
       </c>
       <c r="D23" t="s">
         <v>70</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE02D55F-E632-483B-8913-7D8F85C7F18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C5FF55-D6CB-4542-A2A6-BB92CF38DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -638,7 +638,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,7 +1504,7 @@
         <v>70</v>
       </c>
       <c r="E23">
-        <v>450760</v>
+        <v>449740</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C5FF55-D6CB-4542-A2A6-BB92CF38DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3682C6C3-96AE-47BD-AA9F-7C52B908F713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
   <si>
     <t>item</t>
   </si>
@@ -638,7 +638,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,38 +1381,46 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>772</v>
       </c>
-      <c r="C20">
-        <v>2024</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C20" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>1220.9000000000001</v>
       </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="3">
         <v>45545</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="3">
         <v>45547</v>
       </c>
-      <c r="L20" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="3">
+        <v>45561</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,14 +8,44 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3682C6C3-96AE-47BD-AA9F-7C52B908F713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026810FC-A19D-4297-9841-87D45F3406C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Planilha3!$A$3:$A$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Planilha3!$B$2</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Planilha3!$A$8</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Planilha3!$A$9</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Planilha3!$B$10</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Planilha3!$B$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Planilha3!$B$3</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Planilha3!$B$4</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Planilha3!$B$5</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Planilha3!$B$6</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Planilha3!$B$7</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Planilha3!$B$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Planilha3!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Planilha3!$B$9</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Planilha3!$A$3:$A$7</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Planilha3!$B$2</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Planilha3!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Planilha3!$A$3:$A$7</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Planilha3!$B$2</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Planilha3!$B$3:$B$7</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Planilha3!$A$10</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Planilha3!$A$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Planilha3!$A$3</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Planilha3!$A$4</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Planilha3!$A$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Planilha3!$A$6</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Planilha3!$A$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
   <si>
     <t>item</t>
   </si>
@@ -251,6 +281,21 @@
   </si>
   <si>
     <t>ok (21298,00)</t>
+  </si>
+  <si>
+    <t>açucar</t>
+  </si>
+  <si>
+    <t>café</t>
+  </si>
+  <si>
+    <t>qtde</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>proximo pedido</t>
   </si>
 </sst>
 </file>
@@ -312,13 +357,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -635,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1530,6 +1577,29 @@
         <v>72</v>
       </c>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="1">
+        <v>45560</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1537,6 +1607,109 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6179A-4E91-4DD2-9576-7FD73AF3B058}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45307</v>
+      </c>
+      <c r="B3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45350</v>
+      </c>
+      <c r="B4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>45414</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>45477</v>
+      </c>
+      <c r="B6" s="7">
+        <f>180</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>45545</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>45566</v>
+      </c>
+      <c r="B8">
+        <v>240</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B3:B8)</f>
+        <v>940</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA38AEA-D99A-4832-B8CB-C63A7986E9F7}">
   <dimension ref="A1:E6"/>
   <sheetViews>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,44 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026810FC-A19D-4297-9841-87D45F3406C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B992AEA-2727-4197-88D6-DF4400969541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Planilha3!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Planilha3!$B$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Planilha3!$A$8</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Planilha3!$A$9</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Planilha3!$B$10</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Planilha3!$B$11</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Planilha3!$B$3</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Planilha3!$B$4</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Planilha3!$B$5</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Planilha3!$B$6</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Planilha3!$B$7</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Planilha3!$B$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Planilha3!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Planilha3!$B$9</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Planilha3!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Planilha3!$B$2</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Planilha3!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Planilha3!$A$3:$A$7</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Planilha3!$B$2</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Planilha3!$B$3:$B$7</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Planilha3!$A$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Planilha3!$A$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Planilha3!$A$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Planilha3!$A$4</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Planilha3!$A$5</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Planilha3!$A$6</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Planilha3!$A$7</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -684,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,8 +1552,17 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>806</v>
+      </c>
+      <c r="C24">
+        <v>2024</v>
+      </c>
       <c r="D24" t="s">
         <v>30</v>
+      </c>
+      <c r="E24">
+        <v>44381</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1610,7 +1590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6179A-4E91-4DD2-9576-7FD73AF3B058}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B992AEA-2727-4197-88D6-DF4400969541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11460308-BB6B-49D6-B448-5F20BFF017BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
   <si>
     <t>item</t>
   </si>
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,45 +1115,49 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>733</v>
       </c>
-      <c r="C12" s="4">
-        <v>2024</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>182977</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="3">
         <v>45527</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="3">
         <v>45532</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
+      <c r="J12" s="2"/>
+      <c r="K12" s="3">
+        <v>45562</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="M12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="N12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="O12" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1541,6 +1545,9 @@
       <c r="H23" s="1">
         <v>45559</v>
       </c>
+      <c r="I23" s="1">
+        <v>45562</v>
+      </c>
       <c r="L23" t="s">
         <v>71</v>
       </c>
@@ -1573,11 +1580,31 @@
       <c r="H24" s="1">
         <v>45560</v>
       </c>
+      <c r="I24" s="1">
+        <v>45562</v>
+      </c>
       <c r="L24" t="s">
         <v>33</v>
       </c>
       <c r="M24" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>6400</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="1">
+        <v>45562</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11460308-BB6B-49D6-B448-5F20BFF017BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611CF6F-84EA-4901-9831-FA8391A4274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -656,7 +656,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,6 +1593,12 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
+      </c>
+      <c r="B25">
+        <v>811</v>
+      </c>
+      <c r="C25">
+        <v>2024</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611CF6F-84EA-4901-9831-FA8391A4274A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A329F-90A2-44DE-8F25-C2A71DB706D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
   <si>
     <t>item</t>
   </si>
@@ -191,9 +191,6 @@
     <t>THP</t>
   </si>
   <si>
-    <t>025/2024</t>
-  </si>
-  <si>
     <t>açucar/adocante/cha</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>3E TERRAPLANAGEM E CONSTRUÇÕES EIRELI</t>
   </si>
   <si>
-    <t>031/2024</t>
-  </si>
-  <si>
     <t>VEDASYSTEM</t>
   </si>
   <si>
@@ -267,6 +261,15 @@
   </si>
   <si>
     <t>proximo pedido</t>
+  </si>
+  <si>
+    <t>ellen</t>
+  </si>
+  <si>
+    <t>oleo sae 32</t>
+  </si>
+  <si>
+    <t>açucar/cha/copo</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +867,7 @@
         <v>2024</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4">
         <v>370668.31</v>
@@ -905,7 +908,7 @@
         <v>2024</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="2">
         <v>185</v>
@@ -1062,10 +1065,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O10" s="4"/>
     </row>
@@ -1153,7 +1156,7 @@
         <v>38</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>45</v>
@@ -1413,7 +1416,7 @@
         <v>2024</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2">
         <v>1220.9000000000001</v>
@@ -1422,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3">
         <v>45545</v>
@@ -1438,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
@@ -1465,7 +1468,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H21" s="3">
         <v>45545</v>
@@ -1481,7 +1484,7 @@
         <v>12</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
@@ -1508,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1">
         <v>45555</v>
@@ -1531,7 +1534,7 @@
         <v>2024</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23">
         <v>449740</v>
@@ -1540,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H23" s="1">
         <v>45559</v>
@@ -1549,10 +1552,10 @@
         <v>45562</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1575,7 +1578,7 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H24" s="1">
         <v>45560</v>
@@ -1611,6 +1614,38 @@
       </c>
       <c r="H25" s="1">
         <v>45562</v>
+      </c>
+      <c r="L25" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26">
+        <v>8815.4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="1">
+        <v>45566</v>
+      </c>
+      <c r="L26" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1636,24 +1671,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,12 +1740,12 @@
         <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <f>SUM(B3:B8)</f>
@@ -1750,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
         <v>47</v>
@@ -1758,13 +1793,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="1">
         <v>45225</v>
@@ -1775,13 +1810,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
         <v>59</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1">
         <v>45236</v>
@@ -1792,13 +1827,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
         <v>63</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
       </c>
       <c r="D4" s="1">
         <v>45322</v>
@@ -1809,13 +1844,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1">
         <v>45436</v>
@@ -1826,13 +1861,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1">
         <v>45545</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793A329F-90A2-44DE-8F25-C2A71DB706D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFFECAC-E708-424B-A605-F1319B75CD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>item</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>açucar/cha/copo</t>
+  </si>
+  <si>
+    <t>ok (café)</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,39 +1374,45 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>770</v>
       </c>
-      <c r="C19">
-        <v>2024</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>2361.6</v>
       </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="5">
         <v>45545</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="5">
         <v>45547</v>
       </c>
-      <c r="L19" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="N19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFFECAC-E708-424B-A605-F1319B75CD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA6A1E-4CD5-416B-BA95-9678960439F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -662,7 +662,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,6 +1624,9 @@
       <c r="H25" s="1">
         <v>45562</v>
       </c>
+      <c r="I25" s="1">
+        <v>45567</v>
+      </c>
       <c r="L25" t="s">
         <v>78</v>
       </c>
@@ -1635,6 +1638,12 @@
       <c r="A26">
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>816</v>
+      </c>
+      <c r="C26">
+        <v>2024</v>
+      </c>
       <c r="D26" t="s">
         <v>56</v>
       </c>
@@ -1649,6 +1658,9 @@
       </c>
       <c r="H26" s="1">
         <v>45566</v>
+      </c>
+      <c r="I26" s="1">
+        <v>45567</v>
       </c>
       <c r="L26" t="s">
         <v>12</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BA6A1E-4CD5-416B-BA95-9678960439F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F68DEC-BD5F-4E98-89DA-39285320F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
   <si>
     <t>item</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>ok (café)</t>
+  </si>
+  <si>
+    <t>SQUADRA COMERCIO E SERVICOS LTDA</t>
   </si>
 </sst>
 </file>
@@ -659,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,6 +1670,26 @@
       </c>
       <c r="M26" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27">
+        <v>5248</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="1">
+        <v>45569</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F68DEC-BD5F-4E98-89DA-39285320F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E3107E-30E8-4909-A032-6E5F607D8E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
   <si>
     <t>item</t>
   </si>
@@ -276,6 +276,15 @@
   </si>
   <si>
     <t>SQUADRA COMERCIO E SERVICOS LTDA</t>
+  </si>
+  <si>
+    <t>009/2024</t>
+  </si>
+  <si>
+    <t>cimento</t>
+  </si>
+  <si>
+    <t>agua sanitaria</t>
   </si>
 </sst>
 </file>
@@ -662,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,6 +1699,35 @@
       </c>
       <c r="H27" s="1">
         <v>45569</v>
+      </c>
+      <c r="L27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="1">
+        <v>45572</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E3107E-30E8-4909-A032-6E5F607D8E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BA277-8FEC-4C82-864E-6F7B7C07375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="86">
   <si>
     <t>item</t>
   </si>
@@ -674,7 +674,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,45 +1386,49 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>770</v>
       </c>
-      <c r="C19" s="4">
-        <v>2024</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>2361.6</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="3">
         <v>45545</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="3">
         <v>45547</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="3">
+        <v>45569</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="4" t="s">
+      <c r="M19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="4" t="s">
+      <c r="N19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O19" s="4"/>
+      <c r="O19" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1513,35 +1517,44 @@
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>797</v>
       </c>
-      <c r="C22">
-        <v>2024</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C22" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>111852</v>
       </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="3">
         <v>45555</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="3">
         <v>45559</v>
       </c>
-      <c r="L22" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="3">
+        <v>45573</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1580,38 +1593,46 @@
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>806</v>
       </c>
-      <c r="C24">
-        <v>2024</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="C24" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>44381</v>
       </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="3">
         <v>45560</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="3">
         <v>45562</v>
       </c>
-      <c r="L24" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="3">
+        <v>45573</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701BA277-8FEC-4C82-864E-6F7B7C07375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44600A8C-1AE7-4988-AB7F-9CA84C55423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -674,7 +674,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,6 +1706,12 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>818</v>
+      </c>
+      <c r="C27">
+        <v>2024</v>
+      </c>
       <c r="D27" t="s">
         <v>82</v>
       </c>
@@ -1732,8 +1738,17 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>819</v>
+      </c>
+      <c r="C28">
+        <v>2024</v>
+      </c>
       <c r="D28" t="s">
         <v>42</v>
+      </c>
+      <c r="E28">
+        <v>9740</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44600A8C-1AE7-4988-AB7F-9CA84C55423F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B33C3D-9745-437D-82E4-8A4C02F23DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
   <si>
     <t>item</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>agua sanitaria</t>
+  </si>
+  <si>
+    <t>tintas</t>
   </si>
 </sst>
 </file>
@@ -671,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,6 +1767,29 @@
       </c>
       <c r="M28" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>83</v>
+      </c>
+      <c r="H29" s="1">
+        <v>45575</v>
+      </c>
+      <c r="L29" t="s">
+        <v>14</v>
+      </c>
+      <c r="M29" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B33C3D-9745-437D-82E4-8A4C02F23DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516BB83A-0191-41D3-AAFB-A22E6D960364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -677,7 +677,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,8 +1773,17 @@
       <c r="A29">
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>834</v>
+      </c>
+      <c r="C29">
+        <v>2024</v>
+      </c>
       <c r="D29" t="s">
         <v>42</v>
+      </c>
+      <c r="E29">
+        <v>8800</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516BB83A-0191-41D3-AAFB-A22E6D960364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE69AB7A-BBA3-4964-AE2E-80E62EAE57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
   <si>
     <t>item</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>tintas</t>
+  </si>
+  <si>
+    <t>ok(acucar/copo)</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,71 +1642,86 @@
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>811</v>
       </c>
-      <c r="C25">
-        <v>2024</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C25" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>6400</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H25" s="1">
+      <c r="G25" s="2"/>
+      <c r="H25" s="3">
         <v>45562</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="3">
         <v>45567</v>
       </c>
-      <c r="L25" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="3">
+        <v>45576</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>816</v>
       </c>
-      <c r="C26">
-        <v>2024</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="C26" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>8815.4</v>
       </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="5">
         <v>45566</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="5">
         <v>45567</v>
       </c>
-      <c r="L26" t="s">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="N26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE69AB7A-BBA3-4964-AE2E-80E62EAE57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E1332-0BF5-4920-B69E-145F6AA6716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="88">
   <si>
     <t>item</t>
   </si>
@@ -680,7 +680,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,45 +1683,49 @@
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>816</v>
       </c>
-      <c r="C26" s="4">
-        <v>2024</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>8815.4</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="3">
         <v>45566</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="3">
         <v>45567</v>
       </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="3">
+        <v>45579</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M26" s="4" t="s">
+      <c r="M26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N26" s="4" t="s">
+      <c r="N26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0E1332-0BF5-4920-B69E-145F6AA6716E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E0283-5975-4987-9429-9098E4B17CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
   <si>
     <t>item</t>
   </si>
@@ -291,6 +291,12 @@
   </si>
   <si>
     <t>ok(acucar/copo)</t>
+  </si>
+  <si>
+    <t>manutencao esgoto(cancelado)</t>
+  </si>
+  <si>
+    <t>tubo coleto esgoto 100mm</t>
   </si>
 </sst>
 </file>
@@ -677,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1821,6 +1827,29 @@
       </c>
       <c r="M29" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="1">
+        <v>45579</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+      <c r="M30" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784E0283-5975-4987-9429-9098E4B17CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6550EA-A78B-4601-9793-1F58B6D21147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="96">
   <si>
     <t>item</t>
   </si>
@@ -297,6 +297,24 @@
   </si>
   <si>
     <t>tubo coleto esgoto 100mm</t>
+  </si>
+  <si>
+    <t>MARIA ALICE</t>
+  </si>
+  <si>
+    <t>018/2023</t>
+  </si>
+  <si>
+    <t>pape a4 e a3</t>
+  </si>
+  <si>
+    <t>GTN</t>
+  </si>
+  <si>
+    <t>expediente</t>
+  </si>
+  <si>
+    <t>ARAUJO OLIVEIRA</t>
   </si>
 </sst>
 </file>
@@ -358,7 +376,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -367,6 +385,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -683,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1833,9 +1852,18 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>845</v>
+      </c>
+      <c r="C30">
+        <v>2024</v>
+      </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
+      <c r="E30">
+        <v>29436</v>
+      </c>
       <c r="F30" t="s">
         <v>11</v>
       </c>
@@ -1845,11 +1873,104 @@
       <c r="H30" s="1">
         <v>45579</v>
       </c>
+      <c r="I30" s="1">
+        <v>45581</v>
+      </c>
       <c r="L30" t="s">
         <v>33</v>
       </c>
       <c r="M30" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>852</v>
+      </c>
+      <c r="C31">
+        <v>2024</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <v>13477.5</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" s="1">
+        <v>45582</v>
+      </c>
+      <c r="L31" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>853</v>
+      </c>
+      <c r="C32">
+        <v>2024</v>
+      </c>
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32">
+        <v>3833.75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" s="1">
+        <v>45582</v>
+      </c>
+      <c r="L32" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33">
+        <v>2156.8000000000002</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="1">
+        <v>45583</v>
+      </c>
+      <c r="L33" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6550EA-A78B-4601-9793-1F58B6D21147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2F0D4B-3882-4206-9495-4EB4977DB1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
   <si>
     <t>item</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>ARAUJO OLIVEIRA</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,6 +1780,10 @@
       <c r="H27" s="1">
         <v>45569</v>
       </c>
+      <c r="I27" s="1">
+        <v>45583</v>
+      </c>
+      <c r="K27" s="1"/>
       <c r="L27" t="s">
         <v>12</v>
       </c>
@@ -1785,35 +1792,46 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>819</v>
       </c>
-      <c r="C28">
-        <v>2024</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C28" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>9740</v>
       </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="3">
         <v>45572</v>
       </c>
-      <c r="L28" t="s">
+      <c r="I28" s="3">
+        <v>45583</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3">
+        <v>45583</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1841,6 +1859,9 @@
       <c r="H29" s="1">
         <v>45575</v>
       </c>
+      <c r="I29" s="1">
+        <v>45583</v>
+      </c>
       <c r="L29" t="s">
         <v>14</v>
       </c>
@@ -1908,6 +1929,9 @@
       <c r="H31" s="1">
         <v>45582</v>
       </c>
+      <c r="I31" s="1">
+        <v>45586</v>
+      </c>
       <c r="L31" t="s">
         <v>12</v>
       </c>
@@ -1940,6 +1964,9 @@
       <c r="H32" s="1">
         <v>45582</v>
       </c>
+      <c r="I32" s="1">
+        <v>45586</v>
+      </c>
       <c r="L32" t="s">
         <v>12</v>
       </c>
@@ -1950,6 +1977,12 @@
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
+      </c>
+      <c r="B33">
+        <v>858</v>
+      </c>
+      <c r="C33">
+        <v>2024</v>
       </c>
       <c r="D33" t="s">
         <v>95</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2F0D4B-3882-4206-9495-4EB4977DB1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9816F8A-DCA2-45C8-83F1-E5D8A1729C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
   <si>
     <t>item</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>preao</t>
   </si>
 </sst>
 </file>
@@ -705,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,6 +2007,32 @@
       </c>
       <c r="M33" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>9740</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="1">
+        <v>45586</v>
+      </c>
+      <c r="L34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M34" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9816F8A-DCA2-45C8-83F1-E5D8A1729C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B250D-7C66-483A-9E75-0BE792BAE0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -711,7 +711,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,6 +2002,9 @@
       <c r="H33" s="1">
         <v>45583</v>
       </c>
+      <c r="I33" s="1">
+        <v>45587</v>
+      </c>
       <c r="L33" t="s">
         <v>12</v>
       </c>
@@ -2012,6 +2015,12 @@
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
+      </c>
+      <c r="B34">
+        <v>861</v>
+      </c>
+      <c r="C34">
+        <v>2024</v>
       </c>
       <c r="D34" t="s">
         <v>42</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16B250D-7C66-483A-9E75-0BE792BAE0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB96D0E-5382-4C06-87B6-E13CB0ACA317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="98">
   <si>
     <t>item</t>
   </si>
@@ -708,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2042,6 +2042,23 @@
       </c>
       <c r="M34" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35">
+        <v>6850</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>45588</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB96D0E-5382-4C06-87B6-E13CB0ACA317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A21EDB2-CBB8-4E67-B041-6DABFFB63015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="99">
   <si>
     <t>item</t>
   </si>
@@ -320,7 +320,10 @@
     <t>OK</t>
   </si>
   <si>
-    <t>preao</t>
+    <t>tinta spray</t>
+  </si>
+  <si>
+    <t>alexandre</t>
   </si>
 </sst>
 </file>
@@ -708,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2032,7 @@
         <v>9740</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="G34" t="s">
         <v>83</v>
@@ -2048,6 +2051,12 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35">
+        <v>867</v>
+      </c>
+      <c r="C35">
+        <v>2024</v>
+      </c>
       <c r="D35" t="s">
         <v>44</v>
       </c>
@@ -2059,6 +2068,41 @@
       </c>
       <c r="H35" s="1">
         <v>45588</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>870</v>
+      </c>
+      <c r="C36">
+        <v>2024</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>598</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="1">
+        <v>45588</v>
+      </c>
+      <c r="L36" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A21EDB2-CBB8-4E67-B041-6DABFFB63015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849D894-CAF4-433A-9B5B-ACB6E7271506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
+    <sheet name="CAFE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="113">
   <si>
     <t>item</t>
   </si>
@@ -317,13 +318,55 @@
     <t>ARAUJO OLIVEIRA</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>tinta spray</t>
   </si>
   <si>
     <t>alexandre</t>
+  </si>
+  <si>
+    <t>JANEIRO</t>
+  </si>
+  <si>
+    <t>QTDE</t>
+  </si>
+  <si>
+    <t>FEVEREIRO</t>
+  </si>
+  <si>
+    <t>MARCO</t>
+  </si>
+  <si>
+    <t>ABRIL</t>
+  </si>
+  <si>
+    <t>MAIO</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
+  </si>
+  <si>
+    <t>JULHO</t>
+  </si>
+  <si>
+    <t>AGOSTO</t>
+  </si>
+  <si>
+    <t>SETEMBRO</t>
+  </si>
+  <si>
+    <t>OUTUBRO</t>
+  </si>
+  <si>
+    <t>DEZEMBRO</t>
+  </si>
+  <si>
+    <t>NOVEMBRO</t>
+  </si>
+  <si>
+    <t>media mensal</t>
+  </si>
+  <si>
+    <t>media dia</t>
   </si>
 </sst>
 </file>
@@ -714,7 +757,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,42 +1880,50 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>834</v>
       </c>
-      <c r="C29">
-        <v>2024</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C29" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>8800</v>
       </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="3">
         <v>45575</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="3">
         <v>45583</v>
       </c>
-      <c r="L29" t="s">
+      <c r="J29" s="2"/>
+      <c r="K29" s="3">
+        <v>45586</v>
+      </c>
+      <c r="L29" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="2" t="s">
         <v>86</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1911,38 +1962,46 @@
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>852</v>
       </c>
-      <c r="C31">
-        <v>2024</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C31" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>13477.5</v>
       </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <v>45582</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <v>45586</v>
       </c>
-      <c r="L31" t="s">
+      <c r="J31" s="2"/>
+      <c r="K31" s="3">
+        <v>45593</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="2" t="s">
         <v>92</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2040,6 +2099,9 @@
       <c r="H34" s="1">
         <v>45586</v>
       </c>
+      <c r="I34" s="1">
+        <v>45589</v>
+      </c>
       <c r="L34" t="s">
         <v>12</v>
       </c>
@@ -2069,6 +2131,9 @@
       <c r="H35" s="1">
         <v>45588</v>
       </c>
+      <c r="I35" s="1">
+        <v>45593</v>
+      </c>
       <c r="L35" t="s">
         <v>12</v>
       </c>
@@ -2098,11 +2163,14 @@
       <c r="H36" s="1">
         <v>45588</v>
       </c>
+      <c r="I36" s="1">
+        <v>45593</v>
+      </c>
       <c r="L36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2336,4 +2404,153 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D50A64-B7B3-4AB6-ACC7-2BC7A6CA5D26}">
+  <dimension ref="A2:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5">
+        <f>237-73</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14">
+        <f>727-562</f>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B3:B14)</f>
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17">
+        <f>B16/12</f>
+        <v>146.83333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18">
+        <f>B17/30</f>
+        <v>4.8944444444444448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3849D894-CAF4-433A-9B5B-ACB6E7271506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524FDC2-9CB5-46BD-9970-40714ADD72BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="114">
   <si>
     <t>item</t>
   </si>
@@ -367,6 +367,9 @@
   </si>
   <si>
     <t>media dia</t>
+  </si>
+  <si>
+    <t>mês</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
@@ -2410,8 +2413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D50A64-B7B3-4AB6-ACC7-2BC7A6CA5D26}">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2421,6 +2424,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524FDC2-9CB5-46BD-9970-40714ADD72BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF96158-30D5-4004-BC71-22CCF8F85774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="115">
   <si>
     <t>item</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>mês</t>
+  </si>
+  <si>
+    <t>COMPREAKI</t>
   </si>
 </sst>
 </file>
@@ -757,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2174,6 +2177,32 @@
       </c>
       <c r="M36" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>884</v>
+      </c>
+      <c r="C37">
+        <v>2024</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37">
+        <v>9925</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D50A64-B7B3-4AB6-ACC7-2BC7A6CA5D26}">
   <dimension ref="A2:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF96158-30D5-4004-BC71-22CCF8F85774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6881687D-5F70-46F4-B27F-EA408305D9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
   <si>
     <t>item</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>COMPREAKI</t>
+  </si>
+  <si>
+    <t>PREGAO</t>
+  </si>
+  <si>
+    <t>areia, pedra e cimento</t>
   </si>
 </sst>
 </file>
@@ -760,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,11 +2204,40 @@
       <c r="F37" t="s">
         <v>8</v>
       </c>
+      <c r="H37" s="1">
+        <v>45596</v>
+      </c>
+      <c r="I37" s="1">
+        <v>45600</v>
+      </c>
       <c r="L37" t="s">
         <v>12</v>
       </c>
       <c r="M37" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="1">
+        <v>45600</v>
+      </c>
+      <c r="L38" t="s">
+        <v>12</v>
+      </c>
+      <c r="M38" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6881687D-5F70-46F4-B27F-EA408305D9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A734F39-3F47-4B30-8D98-ED63092BD1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
   <si>
     <t>item</t>
   </si>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,38 +1653,46 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>805</v>
       </c>
-      <c r="C23">
-        <v>2024</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C23" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>449740</v>
       </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="3">
         <v>45559</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="3">
         <v>45562</v>
       </c>
-      <c r="L23" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="3">
+        <v>45597</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="2" t="s">
         <v>70</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2051,42 +2059,50 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>858</v>
       </c>
-      <c r="C33">
-        <v>2024</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="C33" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>2156.8000000000002</v>
       </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <v>45583</v>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <v>45587</v>
       </c>
-      <c r="L33" t="s">
+      <c r="J33" s="2"/>
+      <c r="K33" s="3">
+        <v>45597</v>
+      </c>
+      <c r="L33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2121,7 +2137,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2153,39 +2169,48 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>870</v>
       </c>
-      <c r="C36">
-        <v>2024</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="C36" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>598</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H36" s="1">
+      <c r="G36" s="2"/>
+      <c r="H36" s="3">
         <v>45588</v>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="3">
         <v>45593</v>
       </c>
-      <c r="L36" t="s">
+      <c r="J36" s="2"/>
+      <c r="K36" s="3">
+        <v>45600</v>
+      </c>
+      <c r="L36" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="2"/>
+      <c r="O36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2217,12 +2242,21 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38">
+        <v>903</v>
+      </c>
+      <c r="C38">
+        <v>2024</v>
+      </c>
       <c r="D38" t="s">
         <v>42</v>
+      </c>
+      <c r="E38">
+        <v>12153.08</v>
       </c>
       <c r="F38" t="s">
         <v>115</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A734F39-3F47-4B30-8D98-ED63092BD1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90034EF-CFAE-42F2-B122-F840BD7EEE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="117">
   <si>
     <t>item</t>
   </si>
@@ -766,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H24" s="3">
         <v>45560</v>
@@ -2211,35 +2211,44 @@
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>884</v>
       </c>
-      <c r="C37">
-        <v>2024</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C37" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>9925</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="1">
+      <c r="G37" s="2"/>
+      <c r="H37" s="3">
         <v>45596</v>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="3">
         <v>45600</v>
       </c>
-      <c r="L37" t="s">
+      <c r="J37" s="2"/>
+      <c r="K37" s="3">
+        <v>45604</v>
+      </c>
+      <c r="L37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="2" t="s">
         <v>74</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2272,6 +2281,29 @@
       </c>
       <c r="M38" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="1">
+        <v>45604</v>
+      </c>
+      <c r="L39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90034EF-CFAE-42F2-B122-F840BD7EEE59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75374A1-7074-4B00-8717-2B83EB8C0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -769,7 +769,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,8 +2287,17 @@
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39">
+        <v>912</v>
+      </c>
+      <c r="C39">
+        <v>2024</v>
+      </c>
       <c r="D39" t="s">
         <v>30</v>
+      </c>
+      <c r="E39">
+        <v>245918.58</v>
       </c>
       <c r="F39" t="s">
         <v>11</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75374A1-7074-4B00-8717-2B83EB8C0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC20D806-D222-4650-AFA1-22439FE50CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="117">
   <si>
     <t>item</t>
   </si>
@@ -766,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2313,6 +2313,46 @@
       </c>
       <c r="M39" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <v>11441</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="1">
+        <v>45609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41">
+        <v>1013.6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" s="1">
+        <v>45609</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC20D806-D222-4650-AFA1-22439FE50CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0191B-67A9-422E-B04D-AADFA804CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="119">
   <si>
     <t>item</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>areia, pedra e cimento</t>
+  </si>
+  <si>
+    <t>papel higienico</t>
+  </si>
+  <si>
+    <t>papel toalha, sãco de lixo</t>
   </si>
 </sst>
 </file>
@@ -768,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,6 +2325,12 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40">
+        <v>920</v>
+      </c>
+      <c r="C40">
+        <v>2024</v>
+      </c>
       <c r="D40" t="s">
         <v>53</v>
       </c>
@@ -2333,12 +2345,24 @@
       </c>
       <c r="H40" s="1">
         <v>45609</v>
+      </c>
+      <c r="L40" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41">
+        <v>921</v>
+      </c>
+      <c r="C41">
+        <v>2024</v>
+      </c>
       <c r="D41" t="s">
         <v>95</v>
       </c>
@@ -2353,6 +2377,12 @@
       </c>
       <c r="H41" s="1">
         <v>45609</v>
+      </c>
+      <c r="L41" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B0191B-67A9-422E-B04D-AADFA804CABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A3F197-B81A-4D66-83CE-311B18B2201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="119">
   <si>
     <t>item</t>
   </si>
@@ -772,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E25" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2383,6 +2383,29 @@
       </c>
       <c r="M41" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42">
+        <v>6850</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="1">
+        <v>45614</v>
+      </c>
+      <c r="L42" t="s">
+        <v>12</v>
+      </c>
+      <c r="M42" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A3F197-B81A-4D66-83CE-311B18B2201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD81ECC6-53CF-4229-8FE3-BC909E3FDC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="123">
   <si>
     <t>item</t>
   </si>
@@ -385,6 +385,18 @@
   </si>
   <si>
     <t>papel toalha, sãco de lixo</t>
+  </si>
+  <si>
+    <t>AAGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMERCIAL VANGUARDEIRA </t>
+  </si>
+  <si>
+    <t>031/2024</t>
+  </si>
+  <si>
+    <t>VDA</t>
   </si>
 </sst>
 </file>
@@ -772,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,6 +2418,57 @@
       </c>
       <c r="M42" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E43">
+        <v>4680.6000000000004</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="1">
+        <v>45615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="1">
+        <v>45615</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD81ECC6-53CF-4229-8FE3-BC909E3FDC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949F1CC7-E3C9-4D34-A5CC-74AC286ABD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,6 +2358,9 @@
       <c r="H40" s="1">
         <v>45609</v>
       </c>
+      <c r="I40" s="1">
+        <v>45617</v>
+      </c>
       <c r="L40" t="s">
         <v>12</v>
       </c>
@@ -2389,6 +2392,9 @@
       </c>
       <c r="H41" s="1">
         <v>45609</v>
+      </c>
+      <c r="I41" s="1">
+        <v>45617</v>
       </c>
       <c r="L41" t="s">
         <v>12</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949F1CC7-E3C9-4D34-A5CC-74AC286ABD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55D162-AF2F-4D82-BC93-092D46323E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -786,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,8 +2447,17 @@
       <c r="A44">
         <v>43</v>
       </c>
+      <c r="B44">
+        <v>924</v>
+      </c>
+      <c r="C44">
+        <v>2024</v>
+      </c>
       <c r="D44" t="s">
         <v>120</v>
+      </c>
+      <c r="E44">
+        <v>1498.2</v>
       </c>
       <c r="F44" t="s">
         <v>11</v>
@@ -2464,8 +2473,17 @@
       <c r="A45">
         <v>44</v>
       </c>
+      <c r="B45">
+        <v>925</v>
+      </c>
+      <c r="C45">
+        <v>2024</v>
+      </c>
       <c r="D45" t="s">
         <v>122</v>
+      </c>
+      <c r="E45">
+        <v>13981.5</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55D162-AF2F-4D82-BC93-092D46323E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4A891E-B020-41BE-B4A1-19B4FEBE8A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
   <si>
     <t>item</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>VDA</t>
+  </si>
+  <si>
+    <t>ok(3187,87)</t>
   </si>
 </sst>
 </file>
@@ -467,7 +470,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -786,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,39 +2046,45 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>853</v>
       </c>
-      <c r="C32">
-        <v>2024</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="C32" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <v>3833.75</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="5">
         <v>45582</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="5">
         <v>45586</v>
       </c>
-      <c r="L32" t="s">
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="N32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -2121,38 +2130,46 @@
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>861</v>
       </c>
-      <c r="C34">
-        <v>2024</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="C34" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>9740</v>
       </c>
-      <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <v>45586</v>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <v>45589</v>
       </c>
-      <c r="L34" t="s">
+      <c r="J34" s="2"/>
+      <c r="K34" s="3">
+        <v>45589</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="2" t="s">
         <v>84</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2302,35 +2319,46 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>912</v>
       </c>
-      <c r="C39">
-        <v>2024</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>245918.58</v>
       </c>
-      <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="3">
         <v>45604</v>
       </c>
-      <c r="L39" t="s">
+      <c r="I39" s="3">
+        <v>45617</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3">
+        <v>45622</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="2" t="s">
         <v>32</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2369,38 +2397,46 @@
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>921</v>
       </c>
-      <c r="C41">
-        <v>2024</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>1013.6</v>
       </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="3">
         <v>45609</v>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <v>45617</v>
       </c>
-      <c r="L41" t="s">
+      <c r="J41" s="2"/>
+      <c r="K41" s="3">
+        <v>45622</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="2" t="s">
         <v>117</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2468,6 +2504,9 @@
       <c r="H44" s="1">
         <v>45615</v>
       </c>
+      <c r="I44" s="1">
+        <v>45623</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -2493,6 +2532,9 @@
       </c>
       <c r="H45" s="1">
         <v>45615</v>
+      </c>
+      <c r="I45" s="1">
+        <v>45623</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4A891E-B020-41BE-B4A1-19B4FEBE8A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5432F34-E7F1-492A-AEA7-A7686CD2D285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -790,7 +790,7 @@
   <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2442,6 +2442,12 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
+      </c>
+      <c r="B42">
+        <v>934</v>
+      </c>
+      <c r="C42">
+        <v>2024</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5432F34-E7F1-492A-AEA7-A7686CD2D285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11221DED-721E-4509-AF18-ADA401297681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="124">
   <si>
     <t>item</t>
   </si>
@@ -393,13 +393,13 @@
     <t xml:space="preserve">COMERCIAL VANGUARDEIRA </t>
   </si>
   <si>
-    <t>031/2024</t>
-  </si>
-  <si>
     <t>VDA</t>
   </si>
   <si>
     <t>ok(3187,87)</t>
+  </si>
+  <si>
+    <t>cimento, areia, pincel</t>
   </si>
 </sst>
 </file>
@@ -787,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O45"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,7 +2082,7 @@
         <v>94</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O32" s="4"/>
     </row>
@@ -2472,6 +2472,12 @@
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" s="2">
+        <v>943</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2024</v>
+      </c>
       <c r="D43" t="s">
         <v>119</v>
       </c>
@@ -2505,7 +2511,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H44" s="1">
         <v>45615</v>
@@ -2525,7 +2531,7 @@
         <v>2024</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45">
         <v>13981.5</v>
@@ -2534,13 +2540,36 @@
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="H45" s="1">
         <v>45615</v>
       </c>
       <c r="I45" s="1">
         <v>45623</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="1">
+        <v>45624</v>
+      </c>
+      <c r="L46" t="s">
+        <v>12</v>
+      </c>
+      <c r="M46" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11221DED-721E-4509-AF18-ADA401297681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D7C23E-BEAF-4B34-887A-1E9084C78460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
   <si>
     <t>item</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>cimento, areia, pincel</t>
+  </si>
+  <si>
+    <t>GUERREIRO</t>
   </si>
 </sst>
 </file>
@@ -787,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2179,29 +2182,38 @@
       <c r="B35">
         <v>867</v>
       </c>
-      <c r="C35">
-        <v>2024</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C35" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>6850</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="1">
+      <c r="G35" s="2"/>
+      <c r="H35" s="3">
         <v>45588</v>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <v>45593</v>
       </c>
-      <c r="L35" t="s">
+      <c r="J35" s="2"/>
+      <c r="K35" s="3">
+        <v>45610</v>
+      </c>
+      <c r="L35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2440,32 +2452,42 @@
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>934</v>
       </c>
-      <c r="C42">
-        <v>2024</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>6850</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="1">
+      <c r="G42" s="2"/>
+      <c r="H42" s="3">
         <v>45614</v>
       </c>
-      <c r="L42" t="s">
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3">
+        <v>45625</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42" s="2" t="s">
         <v>79</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2553,9 +2575,18 @@
       <c r="A46">
         <v>45</v>
       </c>
+      <c r="B46">
+        <v>948</v>
+      </c>
+      <c r="C46">
+        <v>2024</v>
+      </c>
       <c r="D46" t="s">
         <v>42</v>
       </c>
+      <c r="E46">
+        <v>17239.240000000002</v>
+      </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
@@ -2570,6 +2601,23 @@
       </c>
       <c r="M46" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45625</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D7C23E-BEAF-4B34-887A-1E9084C78460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CA7F13-6421-47B1-8732-3B1F8C48AD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="125">
   <si>
     <t>item</t>
   </si>
@@ -396,13 +396,13 @@
     <t>VDA</t>
   </si>
   <si>
-    <t>ok(3187,87)</t>
-  </si>
-  <si>
     <t>cimento, areia, pincel</t>
   </si>
   <si>
     <t>GUERREIRO</t>
+  </si>
+  <si>
+    <t>reparo e seca ultrarapido</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="17" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -790,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,38 +1971,46 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>845</v>
       </c>
-      <c r="C30">
-        <v>2024</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>29436</v>
       </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="3">
         <v>45579</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="3">
         <v>45581</v>
       </c>
-      <c r="L30" t="s">
+      <c r="J30" s="2"/>
+      <c r="K30" s="3">
+        <v>44532</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="2" t="s">
         <v>89</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2049,45 +2057,45 @@
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>853</v>
       </c>
-      <c r="C32" s="4">
-        <v>2024</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>3833.75</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="3">
         <v>45582</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="3">
         <v>45586</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4" t="s">
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="4" t="s">
+      <c r="M32" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="N32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O32" s="4"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -2600,15 +2608,24 @@
         <v>12</v>
       </c>
       <c r="M46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47">
+        <v>954</v>
+      </c>
+      <c r="C47">
+        <v>2024</v>
+      </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>123</v>
+      </c>
+      <c r="E47">
+        <v>2467.4499999999998</v>
       </c>
       <c r="F47" t="s">
         <v>11</v>
@@ -2618,6 +2635,18 @@
       </c>
       <c r="H47" s="1">
         <v>45625</v>
+      </c>
+      <c r="L47" t="s">
+        <v>12</v>
+      </c>
+      <c r="M47" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <f>11774.4+17661.6</f>
+        <v>29436</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CA7F13-6421-47B1-8732-3B1F8C48AD11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6006A5-8279-476F-B43C-A3E98F2E500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -790,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2641,12 +2641,6 @@
       </c>
       <c r="M47" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I51">
-        <f>11774.4+17661.6</f>
-        <v>29436</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6006A5-8279-476F-B43C-A3E98F2E500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411B8938-D853-4623-9A8E-BA36802FF407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="137">
   <si>
     <t>item</t>
   </si>
@@ -403,6 +403,42 @@
   </si>
   <si>
     <t>reparo e seca ultrarapido</t>
+  </si>
+  <si>
+    <t>013/2024</t>
+  </si>
+  <si>
+    <t>TECNOBOMBAS</t>
+  </si>
+  <si>
+    <t>obra</t>
+  </si>
+  <si>
+    <t>V E GOMES ARAUJO</t>
+  </si>
+  <si>
+    <t>AVK VALVULAS</t>
+  </si>
+  <si>
+    <t>TUBCON</t>
+  </si>
+  <si>
+    <t>HIDROTAM</t>
+  </si>
+  <si>
+    <t>CONEXO</t>
+  </si>
+  <si>
+    <t>EBARA</t>
+  </si>
+  <si>
+    <t>repsosica estoque</t>
+  </si>
+  <si>
+    <t>017/2024</t>
+  </si>
+  <si>
+    <t>conjuntos motobombas</t>
   </si>
 </sst>
 </file>
@@ -790,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,6 +2640,9 @@
       <c r="H46" s="1">
         <v>45624</v>
       </c>
+      <c r="I46" s="1">
+        <v>45629</v>
+      </c>
       <c r="L46" t="s">
         <v>12</v>
       </c>
@@ -2636,11 +2675,241 @@
       <c r="H47" s="1">
         <v>45625</v>
       </c>
+      <c r="I47" s="1">
+        <v>45629</v>
+      </c>
       <c r="L47" t="s">
         <v>12</v>
       </c>
       <c r="M47" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>956</v>
+      </c>
+      <c r="C48">
+        <v>2024</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48">
+        <v>750000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I48" s="1">
+        <v>45629</v>
+      </c>
+      <c r="L48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>957</v>
+      </c>
+      <c r="C49">
+        <v>2024</v>
+      </c>
+      <c r="D49" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49">
+        <v>565085</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>125</v>
+      </c>
+      <c r="H49" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I49" s="1">
+        <v>45629</v>
+      </c>
+      <c r="L49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>958</v>
+      </c>
+      <c r="C50">
+        <v>2024</v>
+      </c>
+      <c r="D50" t="s">
+        <v>129</v>
+      </c>
+      <c r="E50">
+        <v>80000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I50" s="1">
+        <v>45629</v>
+      </c>
+      <c r="L50" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>959</v>
+      </c>
+      <c r="C51">
+        <v>2024</v>
+      </c>
+      <c r="D51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51">
+        <v>576397.94999999995</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>125</v>
+      </c>
+      <c r="H51" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I51" s="1">
+        <v>45629</v>
+      </c>
+      <c r="L51" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>960</v>
+      </c>
+      <c r="C52">
+        <v>2024</v>
+      </c>
+      <c r="D52" t="s">
+        <v>131</v>
+      </c>
+      <c r="E52">
+        <v>17000</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I52" s="1">
+        <v>45629</v>
+      </c>
+      <c r="L52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>961</v>
+      </c>
+      <c r="C53">
+        <v>2024</v>
+      </c>
+      <c r="D53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E53">
+        <v>472500</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I53" s="1">
+        <v>45629</v>
+      </c>
+      <c r="L53" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>966</v>
+      </c>
+      <c r="C54">
+        <v>2024</v>
+      </c>
+      <c r="D54" t="s">
+        <v>133</v>
+      </c>
+      <c r="E54">
+        <v>363712.75</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I54" s="1">
+        <v>45629</v>
+      </c>
+      <c r="L54" t="s">
+        <v>134</v>
+      </c>
+      <c r="M54" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411B8938-D853-4623-9A8E-BA36802FF407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BEDB5A-C9FF-4A35-AB8B-130907EB005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="137">
   <si>
     <t>item</t>
   </si>
@@ -829,7 +829,7 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,38 +2418,46 @@
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>920</v>
       </c>
-      <c r="C40">
-        <v>2024</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>11441</v>
       </c>
-      <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="3">
         <v>45609</v>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="3">
         <v>45617</v>
       </c>
-      <c r="L40" t="s">
+      <c r="J40" s="2"/>
+      <c r="K40" s="3">
+        <v>45632</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40" s="2" t="s">
         <v>118</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BEDB5A-C9FF-4A35-AB8B-130907EB005A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF218640-3042-4ADA-B3D9-075D517D4E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="144">
   <si>
     <t>item</t>
   </si>
@@ -402,9 +402,6 @@
     <t>GUERREIRO</t>
   </si>
   <si>
-    <t>reparo e seca ultrarapido</t>
-  </si>
-  <si>
     <t>013/2024</t>
   </si>
   <si>
@@ -439,13 +436,37 @@
   </si>
   <si>
     <t>conjuntos motobombas</t>
+  </si>
+  <si>
+    <t>oleo 32</t>
+  </si>
+  <si>
+    <t>HIDRODOMI DO BRASIL</t>
+  </si>
+  <si>
+    <t>NELIA MARIA</t>
+  </si>
+  <si>
+    <t>002/2024</t>
+  </si>
+  <si>
+    <t>014/2024</t>
+  </si>
+  <si>
+    <t>CANCELADA</t>
+  </si>
+  <si>
+    <t>repagos e ultrarapido</t>
+  </si>
+  <si>
+    <t>ultrareapido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +488,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -485,6 +513,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -495,12 +528,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -510,11 +544,14 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
     <cellStyle name="Neutro" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Ruim" xfId="3" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O54"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,39 +2696,43 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="9">
         <v>954</v>
       </c>
-      <c r="C47">
-        <v>2024</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" s="9">
+        <v>2024</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E47">
-        <v>2467.4499999999998</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="E47" s="9">
+        <v>2522.06</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="10">
         <v>45625</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="10">
         <v>45629</v>
       </c>
-      <c r="L47" t="s">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M47" t="s">
-        <v>124</v>
-      </c>
+      <c r="M47" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -2704,7 +2745,7 @@
         <v>2024</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E48">
         <v>750000</v>
@@ -2713,7 +2754,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H48" s="1">
         <v>45628</v>
@@ -2722,7 +2763,7 @@
         <v>45629</v>
       </c>
       <c r="L48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -2736,7 +2777,7 @@
         <v>2024</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E49">
         <v>565085</v>
@@ -2745,7 +2786,7 @@
         <v>11</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H49" s="1">
         <v>45628</v>
@@ -2754,7 +2795,7 @@
         <v>45629</v>
       </c>
       <c r="L49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -2768,7 +2809,7 @@
         <v>2024</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E50">
         <v>80000</v>
@@ -2777,7 +2818,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H50" s="1">
         <v>45628</v>
@@ -2786,7 +2827,7 @@
         <v>45629</v>
       </c>
       <c r="L50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -2800,7 +2841,7 @@
         <v>2024</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E51">
         <v>576397.94999999995</v>
@@ -2809,7 +2850,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H51" s="1">
         <v>45628</v>
@@ -2818,7 +2859,7 @@
         <v>45629</v>
       </c>
       <c r="L51" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
@@ -2832,7 +2873,7 @@
         <v>2024</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E52">
         <v>17000</v>
@@ -2841,7 +2882,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H52" s="1">
         <v>45628</v>
@@ -2850,7 +2891,7 @@
         <v>45629</v>
       </c>
       <c r="L52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -2864,7 +2905,7 @@
         <v>2024</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E53">
         <v>472500</v>
@@ -2873,7 +2914,7 @@
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H53" s="1">
         <v>45628</v>
@@ -2882,7 +2923,7 @@
         <v>45629</v>
       </c>
       <c r="L53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -2896,7 +2937,7 @@
         <v>2024</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54">
         <v>363712.75</v>
@@ -2905,7 +2946,7 @@
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H54" s="1">
         <v>45628</v>
@@ -2914,10 +2955,184 @@
         <v>45629</v>
       </c>
       <c r="L54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>971</v>
+      </c>
+      <c r="C55">
+        <v>2024</v>
+      </c>
+      <c r="D55" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55">
+        <v>149364</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>139</v>
+      </c>
+      <c r="H55" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>972</v>
+      </c>
+      <c r="C56">
+        <v>2024</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56">
+        <v>762460.47</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>973</v>
+      </c>
+      <c r="C57">
+        <v>2024</v>
+      </c>
+      <c r="D57" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57">
+        <v>16494.240000000002</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>140</v>
+      </c>
+      <c r="H57" s="1">
+        <v>45628</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>979</v>
+      </c>
+      <c r="C58">
+        <v>2024</v>
+      </c>
+      <c r="D58" t="s">
+        <v>44</v>
+      </c>
+      <c r="E58">
+        <v>13700</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="1">
+        <v>45630</v>
+      </c>
+      <c r="L58" t="s">
+        <v>12</v>
+      </c>
+      <c r="M58" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>987</v>
+      </c>
+      <c r="C59">
+        <v>2024</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59">
+        <v>2522.06</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" s="1">
+        <v>45631</v>
+      </c>
+      <c r="I59" s="1">
+        <v>45632</v>
+      </c>
+      <c r="L59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>993</v>
+      </c>
+      <c r="C60">
+        <v>2024</v>
+      </c>
+      <c r="D60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60">
+        <v>2508.6999999999998</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="1">
+        <v>45631</v>
+      </c>
+      <c r="I60" s="1">
+        <v>45635</v>
+      </c>
+      <c r="L60" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF218640-3042-4ADA-B3D9-075D517D4E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7334EFAD-A6AA-4027-B050-A27DC42DBBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="145">
   <si>
     <t>item</t>
   </si>
@@ -460,6 +460,9 @@
   </si>
   <si>
     <t>ultrareapido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pregao </t>
   </si>
 </sst>
 </file>
@@ -863,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I55" sqref="I55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3133,6 +3136,23 @@
       </c>
       <c r="L60" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" s="1">
+        <v>45635</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7334EFAD-A6AA-4027-B050-A27DC42DBBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8AA51E-5364-48C5-9809-B9C447176C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="145">
   <si>
     <t>item</t>
   </si>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,7 +2769,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3018,7 +3018,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3067,14 +3067,23 @@
       <c r="H58" s="1">
         <v>45630</v>
       </c>
+      <c r="I58" s="1">
+        <v>45632</v>
+      </c>
+      <c r="K58" s="1">
+        <v>45638</v>
+      </c>
       <c r="L58" t="s">
         <v>12</v>
       </c>
       <c r="M58" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3106,7 +3115,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3138,7 +3147,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8AA51E-5364-48C5-9809-B9C447176C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CEA99-6ED3-4245-A464-B9FEFEA78BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="145">
   <si>
     <t>item</t>
   </si>
@@ -868,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,38 +1523,46 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>762</v>
       </c>
-      <c r="C17">
-        <v>2024</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C17" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>45863.7</v>
       </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="3">
         <v>45540</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="3">
         <v>45547</v>
       </c>
-      <c r="L17" t="s">
+      <c r="J17" s="2"/>
+      <c r="K17" s="3">
+        <v>45644</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -2383,36 +2391,43 @@
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>903</v>
       </c>
-      <c r="C38">
-        <v>2024</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>12153.08</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <v>45600</v>
       </c>
-      <c r="L38" t="s">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3">
+        <v>45644</v>
+      </c>
+      <c r="L38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156CEA99-6ED3-4245-A464-B9FEFEA78BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5116A4-D698-4D27-812B-3C2603BA18C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="146">
   <si>
     <t>item</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t xml:space="preserve">pregao </t>
+  </si>
+  <si>
+    <t>ok(253.545)</t>
   </si>
 </sst>
 </file>
@@ -868,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,38 +1491,46 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>757</v>
       </c>
-      <c r="C16">
-        <v>2024</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C16" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>122692.6</v>
       </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="3">
         <v>45538</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <v>45541</v>
       </c>
-      <c r="L16" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="3">
+        <v>45649</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2650,32 +2661,42 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>925</v>
       </c>
-      <c r="C45">
-        <v>2024</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>13981.5</v>
       </c>
-      <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <v>45615</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="3">
         <v>45623</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="K45" s="3">
+        <v>45652</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -2784,36 +2805,39 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="4">
         <v>957</v>
       </c>
-      <c r="C49">
-        <v>2024</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <v>565085</v>
       </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="5">
         <v>45628</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="5">
         <v>45629</v>
       </c>
-      <c r="L49" t="s">
+      <c r="L49" s="4" t="s">
         <v>126</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5116A4-D698-4D27-812B-3C2603BA18C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21334EBF-37D9-4077-A57F-E6F6EB177874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha3" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId3"/>
-    <sheet name="CAFE" sheetId="4" r:id="rId4"/>
+    <sheet name="3E" sheetId="5" r:id="rId2"/>
+    <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId4"/>
+    <sheet name="CAFE" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="146">
   <si>
     <t>item</t>
   </si>
@@ -174,9 +175,6 @@
     <t>valor</t>
   </si>
   <si>
-    <t>falta 86.765,48</t>
-  </si>
-  <si>
     <t>CONEHIDRO</t>
   </si>
   <si>
@@ -246,9 +244,6 @@
     <t>ok (1000 tubos de 50mm)</t>
   </si>
   <si>
-    <t>ok (21298,00)</t>
-  </si>
-  <si>
     <t>açucar</t>
   </si>
   <si>
@@ -466,13 +461,19 @@
   </si>
   <si>
     <t>ok(253.545)</t>
+  </si>
+  <si>
+    <t>falta 18311,75</t>
+  </si>
+  <si>
+    <t>falta 53558,95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,6 +498,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -540,7 +548,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -552,6 +560,8 @@
     <xf numFmtId="17" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -871,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1090,7 @@
         <v>2024</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4">
         <v>370668.31</v>
@@ -1103,7 +1113,7 @@
         <v>22</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>45</v>
@@ -1121,7 +1131,7 @@
         <v>2024</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2">
         <v>185</v>
@@ -1146,62 +1156,80 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>654</v>
       </c>
-      <c r="C7">
-        <v>2024</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C7" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>16654.53</v>
       </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="1">
+      <c r="H7" s="2"/>
+      <c r="I7" s="3">
         <v>45510</v>
       </c>
-      <c r="L7" t="s">
+      <c r="J7" s="2"/>
+      <c r="K7" s="3">
+        <v>45642</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>656</v>
       </c>
-      <c r="C8">
-        <v>2024</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>130899.61</v>
       </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="1">
+      <c r="H8" s="4"/>
+      <c r="I8" s="5">
         <v>45510</v>
       </c>
-      <c r="L8" t="s">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="M8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1245,45 +1273,45 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>653</v>
       </c>
-      <c r="C10" s="4">
-        <v>2024</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>28753</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5">
+      <c r="H10" s="2"/>
+      <c r="I10" s="3">
         <v>45510</v>
       </c>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5">
+      <c r="J10" s="2"/>
+      <c r="K10" s="3">
         <v>45551</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="4"/>
+      <c r="M10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1369,45 +1397,53 @@
         <v>38</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>736</v>
       </c>
-      <c r="C13">
-        <v>2024</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="C13" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>108375</v>
       </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>45531</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="3">
         <v>45540</v>
       </c>
-      <c r="L13" t="s">
+      <c r="J13" s="2"/>
+      <c r="K13" s="3">
+        <v>45635</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1544,7 +1580,7 @@
         <v>2024</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="2">
         <v>45863.7</v>
@@ -1581,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1596,7 +1632,7 @@
         <v>12</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1610,7 +1646,7 @@
         <v>2024</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2">
         <v>2361.6</v>
@@ -1635,10 +1671,10 @@
         <v>12</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>45</v>
@@ -1655,7 +1691,7 @@
         <v>2024</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2">
         <v>1220.9000000000001</v>
@@ -1680,7 +1716,7 @@
         <v>12</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2" t="s">
@@ -1698,7 +1734,7 @@
         <v>2024</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2">
         <v>2000</v>
@@ -1723,7 +1759,7 @@
         <v>12</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2" t="s">
@@ -1782,7 +1818,7 @@
         <v>2024</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2">
         <v>449740</v>
@@ -1804,10 +1840,10 @@
         <v>45597</v>
       </c>
       <c r="L23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2" t="s">
@@ -1888,10 +1924,10 @@
         <v>45576</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2" t="s">
@@ -1909,7 +1945,7 @@
         <v>2024</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2">
         <v>8815.4</v>
@@ -1934,10 +1970,10 @@
         <v>12</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>45</v>
@@ -1954,10 +1990,10 @@
         <v>2024</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27">
-        <v>5248</v>
+        <v>5143</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1976,7 +2012,7 @@
         <v>12</v>
       </c>
       <c r="M27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -1999,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H28" s="3">
         <v>45572</v>
@@ -2015,7 +2051,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2" t="s">
@@ -2042,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H29" s="3">
         <v>45575</v>
@@ -2058,7 +2094,7 @@
         <v>14</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2" t="s">
@@ -2076,7 +2112,7 @@
         <v>2024</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2">
         <v>29436</v>
@@ -2101,7 +2137,7 @@
         <v>33</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2" t="s">
@@ -2119,7 +2155,7 @@
         <v>2024</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E31" s="2">
         <v>13477.5</v>
@@ -2128,7 +2164,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H31" s="3">
         <v>45582</v>
@@ -2144,7 +2180,7 @@
         <v>12</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2" t="s">
@@ -2162,7 +2198,7 @@
         <v>2024</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2">
         <v>3833.75</v>
@@ -2171,7 +2207,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H32" s="3">
         <v>45582</v>
@@ -2185,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2" t="s">
@@ -2203,7 +2239,7 @@
         <v>2024</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2">
         <v>2156.8000000000002</v>
@@ -2228,7 +2264,7 @@
         <v>12</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2" t="s">
@@ -2255,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H34" s="3">
         <v>45586</v>
@@ -2271,7 +2307,7 @@
         <v>12</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2" t="s">
@@ -2350,10 +2386,10 @@
         <v>45600</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2" t="s">
@@ -2371,7 +2407,7 @@
         <v>2024</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" s="2">
         <v>9925</v>
@@ -2394,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2" t="s">
@@ -2418,10 +2454,10 @@
         <v>12153.08</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H38" s="3">
         <v>45600</v>
@@ -2435,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -2494,7 +2530,7 @@
         <v>2024</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E40" s="2">
         <v>11441</v>
@@ -2519,7 +2555,7 @@
         <v>12</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2" t="s">
@@ -2537,7 +2573,7 @@
         <v>2024</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="2">
         <v>1013.6</v>
@@ -2562,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2" t="s">
@@ -2601,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="2" t="s">
@@ -2619,7 +2655,7 @@
         <v>2024</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E43">
         <v>4680.6000000000004</v>
@@ -2642,7 +2678,7 @@
         <v>2024</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E44">
         <v>1498.2</v>
@@ -2671,7 +2707,7 @@
         <v>2024</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E45" s="2">
         <v>13981.5</v>
@@ -2719,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H46" s="1">
         <v>45624</v>
@@ -2731,7 +2767,7 @@
         <v>12</v>
       </c>
       <c r="M46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2745,7 +2781,7 @@
         <v>2024</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E47" s="9">
         <v>2522.06</v>
@@ -2754,7 +2790,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H47" s="10">
         <v>45625</v>
@@ -2768,7 +2804,7 @@
         <v>12</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -2784,7 +2820,7 @@
         <v>2024</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E48">
         <v>750000</v>
@@ -2793,7 +2829,7 @@
         <v>11</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H48" s="1">
         <v>45628</v>
@@ -2802,7 +2838,7 @@
         <v>45629</v>
       </c>
       <c r="L48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2816,7 +2852,7 @@
         <v>2024</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E49" s="4">
         <v>565085</v>
@@ -2825,7 +2861,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H49" s="5">
         <v>45628</v>
@@ -2834,10 +2870,10 @@
         <v>45629</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -2851,7 +2887,7 @@
         <v>2024</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E50">
         <v>80000</v>
@@ -2860,7 +2896,7 @@
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H50" s="1">
         <v>45628</v>
@@ -2869,7 +2905,7 @@
         <v>45629</v>
       </c>
       <c r="L50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -2883,7 +2919,7 @@
         <v>2024</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E51">
         <v>576397.94999999995</v>
@@ -2892,7 +2928,7 @@
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H51" s="1">
         <v>45628</v>
@@ -2901,7 +2937,7 @@
         <v>45629</v>
       </c>
       <c r="L51" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2915,7 +2951,7 @@
         <v>2024</v>
       </c>
       <c r="D52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E52">
         <v>17000</v>
@@ -2924,7 +2960,7 @@
         <v>11</v>
       </c>
       <c r="G52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H52" s="1">
         <v>45628</v>
@@ -2933,7 +2969,7 @@
         <v>45629</v>
       </c>
       <c r="L52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -2947,7 +2983,7 @@
         <v>2024</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E53">
         <v>472500</v>
@@ -2956,7 +2992,7 @@
         <v>11</v>
       </c>
       <c r="G53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H53" s="1">
         <v>45628</v>
@@ -2965,7 +3001,7 @@
         <v>45629</v>
       </c>
       <c r="L53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -2979,7 +3015,7 @@
         <v>2024</v>
       </c>
       <c r="D54" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E54">
         <v>363712.75</v>
@@ -2988,7 +3024,7 @@
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H54" s="1">
         <v>45628</v>
@@ -2997,10 +3033,10 @@
         <v>45629</v>
       </c>
       <c r="L54" t="s">
+        <v>131</v>
+      </c>
+      <c r="M54" t="s">
         <v>133</v>
-      </c>
-      <c r="M54" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3014,7 +3050,7 @@
         <v>2024</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E55">
         <v>149364</v>
@@ -3023,7 +3059,7 @@
         <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H55" s="1">
         <v>45628</v>
@@ -3050,7 +3086,7 @@
         <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H56" s="1">
         <v>45628</v>
@@ -3068,7 +3104,7 @@
         <v>2024</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E57">
         <v>16494.240000000002</v>
@@ -3077,7 +3113,7 @@
         <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H57" s="1">
         <v>45628</v>
@@ -3116,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="M58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O58" t="s">
         <v>45</v>
@@ -3133,7 +3169,7 @@
         <v>2024</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E59">
         <v>2522.06</v>
@@ -3142,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H59" s="1">
         <v>45631</v>
@@ -3151,7 +3187,7 @@
         <v>45632</v>
       </c>
       <c r="L59" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3165,7 +3201,7 @@
         <v>2024</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E60">
         <v>2508.6999999999998</v>
@@ -3174,7 +3210,7 @@
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H60" s="1">
         <v>45631</v>
@@ -3183,7 +3219,7 @@
         <v>45635</v>
       </c>
       <c r="L60" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -3194,10 +3230,10 @@
         <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H61" s="1">
         <v>45635</v>
@@ -3210,6 +3246,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B7A14A-AA10-4046-8B16-39F5719796FF}">
+  <dimension ref="G7:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>208117.02</v>
+      </c>
+      <c r="T7">
+        <v>370668.31</v>
+      </c>
+    </row>
+    <row r="8" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>19961</v>
+      </c>
+      <c r="T8">
+        <f>T7-P11</f>
+        <v>18311.750000000058</v>
+      </c>
+    </row>
+    <row r="9" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>48492.63</v>
+      </c>
+    </row>
+    <row r="10" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>75785.91</v>
+      </c>
+    </row>
+    <row r="11" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f>SUM(P7:P10)</f>
+        <v>352356.55999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G16" s="11">
+        <v>1944</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="K16" s="12">
+        <v>7474.5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="11">
+        <v>2641</v>
+      </c>
+      <c r="I17">
+        <v>25</v>
+      </c>
+      <c r="K17" s="12">
+        <v>10837.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BB6179A-4E91-4DD2-9576-7FD73AF3B058}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -3226,24 +3344,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3295,12 +3413,12 @@
         <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <f>SUM(B3:B8)</f>
@@ -3312,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA38AEA-D99A-4832-B8CB-C63A7986E9F7}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -3340,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
         <v>47</v>
@@ -3348,13 +3466,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" t="s">
-        <v>60</v>
       </c>
       <c r="D2" s="1">
         <v>45225</v>
@@ -3365,13 +3483,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>45236</v>
@@ -3382,13 +3500,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
       </c>
       <c r="D4" s="1">
         <v>45322</v>
@@ -3399,13 +3517,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="1">
         <v>45436</v>
@@ -3416,13 +3534,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1">
         <v>45545</v>
@@ -3436,7 +3554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D50A64-B7B3-4AB6-ACC7-2BC7A6CA5D26}">
   <dimension ref="A2:B18"/>
   <sheetViews>
@@ -3452,15 +3570,15 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>191</v>
@@ -3468,7 +3586,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4">
         <v>107</v>
@@ -3476,7 +3594,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5">
         <f>237-73</f>
@@ -3485,7 +3603,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B6">
         <v>186</v>
@@ -3493,7 +3611,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7">
         <v>141</v>
@@ -3501,7 +3619,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8">
         <v>176</v>
@@ -3509,7 +3627,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>27</v>
@@ -3517,7 +3635,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>149</v>
@@ -3525,7 +3643,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11">
         <v>66</v>
@@ -3533,7 +3651,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12">
         <v>214</v>
@@ -3541,7 +3659,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>176</v>
@@ -3549,7 +3667,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14">
         <f>727-562</f>
@@ -3558,7 +3676,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16">
         <f>SUM(B3:B14)</f>
@@ -3567,7 +3685,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B17">
         <f>B16/12</f>
@@ -3576,7 +3694,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B18">
         <f>B17/30</f>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21334EBF-37D9-4077-A57F-E6F6EB177874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054658C5-81BA-4EC2-8FC0-770A5CC244AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="156">
   <si>
     <t>item</t>
   </si>
@@ -467,6 +467,36 @@
   </si>
   <si>
     <t>falta 53558,95</t>
+  </si>
+  <si>
+    <t>areia tampar pocos</t>
+  </si>
+  <si>
+    <t>wilma memorando</t>
+  </si>
+  <si>
+    <t>ARAUJO OLVEIRA</t>
+  </si>
+  <si>
+    <t>CAMERO</t>
+  </si>
+  <si>
+    <t>016/2024</t>
+  </si>
+  <si>
+    <t>não sei memorando</t>
+  </si>
+  <si>
+    <t>AMICUS</t>
+  </si>
+  <si>
+    <t>CONSTRUFER</t>
+  </si>
+  <si>
+    <t>ok (709mil)</t>
+  </si>
+  <si>
+    <t>ok(3111)</t>
   </si>
 </sst>
 </file>
@@ -548,7 +578,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -562,6 +592,7 @@
     <xf numFmtId="14" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bom" xfId="1" builtinId="26"/>
@@ -879,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2877,35 +2908,44 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>958</v>
       </c>
-      <c r="C50">
-        <v>2024</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="C50" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>80000</v>
       </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="3">
         <v>45628</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="3">
         <v>45629</v>
       </c>
-      <c r="L50" t="s">
+      <c r="J50" s="2"/>
+      <c r="K50" s="3">
+        <v>45679</v>
+      </c>
+      <c r="L50" s="2" t="s">
         <v>124</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3067,31 +3107,39 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="4">
         <v>972</v>
       </c>
-      <c r="C56">
-        <v>2024</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="C56" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="4">
         <v>762460.47</v>
       </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="5">
         <v>45628</v>
       </c>
-      <c r="I56" s="1"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O56" s="4"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -3121,114 +3169,144 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>979</v>
       </c>
-      <c r="C58">
-        <v>2024</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="C58" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>13700</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="1">
+      <c r="G58" s="2"/>
+      <c r="H58" s="3">
         <v>45630</v>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="3">
         <v>45632</v>
       </c>
-      <c r="K58" s="1">
+      <c r="J58" s="2"/>
+      <c r="K58" s="3">
         <v>45638</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O58" t="s">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>987</v>
       </c>
-      <c r="C59">
-        <v>2024</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="C59" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>2522.06</v>
       </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="F59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="3">
         <v>45631</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="3">
         <v>45632</v>
       </c>
-      <c r="L59" t="s">
+      <c r="J59" s="2"/>
+      <c r="K59" s="3">
+        <v>45664</v>
+      </c>
+      <c r="L59" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>993</v>
       </c>
-      <c r="C60">
-        <v>2024</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="C60" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>2508.6999999999998</v>
       </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="3">
         <v>45631</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="3">
         <v>45635</v>
       </c>
-      <c r="L60" t="s">
+      <c r="J60" s="2"/>
+      <c r="K60" s="3">
+        <v>45665</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>141</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61">
+        <v>1047</v>
+      </c>
+      <c r="C61">
+        <v>2024</v>
+      </c>
       <c r="D61" t="s">
         <v>42</v>
       </c>
+      <c r="E61">
+        <v>16995.64</v>
+      </c>
       <c r="F61" t="s">
         <v>142</v>
       </c>
@@ -3237,6 +3315,347 @@
       </c>
       <c r="H61" s="1">
         <v>45635</v>
+      </c>
+      <c r="I61" s="1">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>1048</v>
+      </c>
+      <c r="C62">
+        <v>2024</v>
+      </c>
+      <c r="D62" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62">
+        <v>115547</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
+      <c r="L62" t="s">
+        <v>147</v>
+      </c>
+      <c r="M62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1050</v>
+      </c>
+      <c r="C63">
+        <v>2024</v>
+      </c>
+      <c r="D63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E63">
+        <v>9740</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
+      <c r="H63" s="1">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4">
+        <v>47</v>
+      </c>
+      <c r="C64" s="4">
+        <v>2025</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="13">
+        <v>7863.1</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="5">
+        <v>45670</v>
+      </c>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O64" s="4"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
+        <v>48</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1900.5</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" s="3">
+        <v>45304</v>
+      </c>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="3">
+        <v>45670</v>
+      </c>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>49</v>
+      </c>
+      <c r="C66">
+        <v>2025</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66">
+        <v>2052.6</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="1">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
+      <c r="C67">
+        <v>2025</v>
+      </c>
+      <c r="D67" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67">
+        <v>17652.5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>150</v>
+      </c>
+      <c r="H67" s="1">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>55</v>
+      </c>
+      <c r="C68">
+        <v>2025</v>
+      </c>
+      <c r="D68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E68">
+        <v>3159</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>29</v>
+      </c>
+      <c r="H68" s="1">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>77</v>
+      </c>
+      <c r="C69">
+        <v>2025</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69">
+        <v>507</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="1">
+        <v>45671</v>
+      </c>
+      <c r="L69" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>88</v>
+      </c>
+      <c r="C70">
+        <v>2025</v>
+      </c>
+      <c r="D70" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70">
+        <v>43159.05</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>81</v>
+      </c>
+      <c r="H70" s="1">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>89</v>
+      </c>
+      <c r="C71">
+        <v>2025</v>
+      </c>
+      <c r="D71" t="s">
+        <v>152</v>
+      </c>
+      <c r="E71">
+        <v>1319.16</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>81</v>
+      </c>
+      <c r="H71" s="1">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>94</v>
+      </c>
+      <c r="C72">
+        <v>2025</v>
+      </c>
+      <c r="D72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72">
+        <v>9381.0499999999993</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>81</v>
+      </c>
+      <c r="H72" s="1">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>95</v>
+      </c>
+      <c r="C73">
+        <v>2025</v>
+      </c>
+      <c r="D73" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73">
+        <v>116696.35</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" s="1">
+        <v>45677</v>
       </c>
     </row>
   </sheetData>

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054658C5-81BA-4EC2-8FC0-770A5CC244AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3FB33-3E0D-41DF-97E9-8D0004722819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="156">
   <si>
     <t>item</t>
   </si>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,39 +2011,46 @@
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>818</v>
       </c>
-      <c r="C27">
-        <v>2024</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C27" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>5143</v>
       </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="3">
         <v>45569</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="3">
         <v>45583</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="L27" t="s">
+      <c r="J27" s="2"/>
+      <c r="K27" s="3">
+        <v>45656</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="2" t="s">
         <v>83</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">

--- a/controle_nad.xlsx
+++ b/controle_nad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B3FB33-3E0D-41DF-97E9-8D0004722819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C465B8F-8479-4823-86A3-042A49A79145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4D3E50C-828F-4DD9-88B8-343E789C5591}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="158">
   <si>
     <t>item</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>ok(3111)</t>
+  </si>
+  <si>
+    <t>arruelas</t>
+  </si>
+  <si>
+    <t>disco de corte</t>
   </si>
 </sst>
 </file>
@@ -912,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A48E92F-1FE3-4093-86F5-25F886D9241F}">
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2706,32 +2712,46 @@
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>924</v>
       </c>
-      <c r="C44">
-        <v>2024</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="2">
+        <v>2024</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>1498.2</v>
       </c>
-      <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="3">
         <v>45615</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="3">
         <v>45623</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="3">
+        <v>45691</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3481,29 +3501,42 @@
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>50</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>2025</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>17652.5</v>
       </c>
-      <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s">
+      <c r="F67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="3">
         <v>45670</v>
+      </c>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="3">
+        <v>45691</v>
+      </c>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -3588,29 +3621,42 @@
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
         <v>89</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>2025</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>1319.16</v>
       </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="3">
         <v>45674</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="3">
+        <v>45693</v>
+      </c>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
